--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDA806-1334-489C-8194-6695B6537C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24060" yWindow="285" windowWidth="24000" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +458,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,6 +820,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -880,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +932,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1038,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1168,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,27 +1188,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1219,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1246,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,23 +1269,44 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2" s="10">
+        <f>B2-C2</f>
+        <v>15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IFERROR((B2-C2)/B2,"-")</f>
+        <v>4.3170750765267295E-2</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2" s="10">
+        <f>G2-H2</f>
+        <v>36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IFERROR((G2-H2)/G2,"-")</f>
+        <v>9.4972027086493035E-2</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2" s="10">
+        <f>L2-M2</f>
+        <v>21269107.770000994</v>
+      </c>
+      <c r="O2" s="5">
+        <f>IFERROR((L2-M2)/L2,"-")</f>
+        <v>5.6484362894991494E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1282,23 +1316,44 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
+        <v>7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E52" si="1">IFERROR((B3-C3)/B3,"-")</f>
+        <v>2.3069981751824741E-2</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I52" si="2">G3-H3</f>
+        <v>22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J52" si="3">IFERROR((G3-H3)/G3,"-")</f>
+        <v>6.6804928315415249E-2</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N52" si="4">L3-M3</f>
+        <v>436.96000000002095</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O52" si="5">IFERROR((L3-M3)/L3,"-")</f>
+        <v>1.3540749922529313E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,23 +1363,44 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9327413275443007E-3</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4" s="10">
+        <f t="shared" si="2"/>
+        <v>62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7141743558856015E-2</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>97416.950000009965</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6599210899959033E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,23 +1410,44 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>9.4273968477453174E-2</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.118932605449092</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>262277.08999999985</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="5"/>
+        <v>3.3800336357544182E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,23 +1457,44 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7149963352064452E-2</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7301283547257551E-3</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6" s="10">
+        <f t="shared" si="4"/>
+        <v>85.710000001010485</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.925202156356929E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,23 +1504,44 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11502817362571344</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10009631366303927</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7" s="10">
+        <f t="shared" si="4"/>
+        <v>398759.91999999993</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11920361114432618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,23 +1551,44 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15235918433091292</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13000189224870184</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8" s="10">
+        <f t="shared" si="4"/>
+        <v>241564.68000000995</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.15295680364719175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,23 +1598,44 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2417130511048909E-2</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10336567542917005</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9" s="10">
+        <f t="shared" si="4"/>
+        <v>796900.47000000998</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="5"/>
+        <v>7.3852043000788653E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,23 +1645,44 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1681998646514792E-2</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>5.5113408723747932E-2</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>9181.0800000000163</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.883298461538465E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,23 +1692,44 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>311228.08999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="5"/>
+        <v>0.82994157333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,23 +1739,44 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0060657805601608E-2</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10527708280146378</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>306086.86000000034</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5433934755654441E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,23 +1786,44 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2912833886247806E-2</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0552253482656594E-2</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>150323.33000000007</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="5"/>
+        <v>2.4217184605222895E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,23 +1833,44 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3637949218750009E-2</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1492968897266765E-2</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14" s="10">
+        <f t="shared" si="4"/>
+        <v>21210.119999999995</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0308095781071827E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,23 +1880,44 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>-496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1837408866824991E-3</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>4.4532273014072019E-2</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15" s="10">
+        <f t="shared" si="4"/>
+        <v>4502589.1500009894</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="5"/>
+        <v>2.3829085727446114E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,23 +1927,44 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1850188616360429E-2</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.769017341040361E-4</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="10">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4464932677229222E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,23 +1974,44 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8351094826658003E-2</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3401666263871937E-2</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="10">
+        <f t="shared" si="4"/>
+        <v>965742.96000000089</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="5"/>
+        <v>6.3071811282801551E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,23 +2021,44 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4037002206391245E-2</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6149619014330668E-2</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>374962.91000000015</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="5"/>
+        <v>0.12882667147667154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,23 +2068,44 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>4.258504294298146E-2</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4289145810384635E-2</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>576344.08999999985</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="5"/>
+        <v>6.1687262121374278E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,23 +2115,44 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2379538203300809E-5</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4142392760188761E-5</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>116.46000100672245</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9158438821450736E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,23 +2162,44 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9052463618023094E-2</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>7.5167420624229556E-2</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>888926.91000010073</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6546762734864152E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,23 +2209,44 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3285502334437123E-2</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22" s="10">
+        <f t="shared" si="2"/>
+        <v>188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5752170574348738E-2</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
+        <v>745.23000000044703</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="5"/>
+        <v>6.2439674240938325E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,23 +2256,44 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9590110100806722E-2</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>4.2394738976719144E-2</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="10">
+        <f t="shared" si="4"/>
+        <v>601242.55999999866</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5892971236375011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,23 +2303,44 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3334943305713101E-2</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24" s="10">
+        <f t="shared" si="2"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>4.087856565111897E-2</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="10">
+        <f t="shared" si="4"/>
+        <v>72.879999999888241</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5504224339284781E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,23 +2350,44 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0226130964676661E-2</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25" s="10">
+        <f t="shared" si="2"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5846773555029746E-2</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25" s="10">
+        <f t="shared" si="4"/>
+        <v>1724.9000000000233</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4741188318228064E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,23 +2397,44 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5306091660634673E-2</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>5.8776040939327839E-2</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>313464.79000000004</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="5"/>
+        <v>5.7720881286022069E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,23 +2444,44 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,23 +2491,44 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5782760864849215E-2</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28" s="10">
+        <f t="shared" si="2"/>
+        <v>264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
+        <v>0.17103239309050916</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>132614.93999999994</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="5"/>
+        <v>8.6909325643882263E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,23 +2538,44 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4800253727847622E-2</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29" s="10">
+        <f t="shared" si="2"/>
+        <v>114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1099320021590155E-2</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>35.330000000074506</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2225336516860273E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,23 +2585,44 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30" s="10">
+        <f t="shared" si="0"/>
+        <v>101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3831374359143746E-3</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30" s="10">
+        <f t="shared" si="2"/>
+        <v>50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
+        <v>3.9561962641116366E-3</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30" s="10">
+        <f t="shared" si="4"/>
+        <v>35290.390000000596</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7439209100169185E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,23 +2632,44 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31" s="10">
+        <f t="shared" si="0"/>
+        <v>24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4030533529678329E-2</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31" s="10">
+        <f t="shared" si="2"/>
+        <v>60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3249136181648611E-2</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31" s="10">
+        <f t="shared" si="4"/>
+        <v>69308.659999999916</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="5"/>
+        <v>3.7049585716576634E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2679,44 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2294942827617691E-2</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32" s="10">
+        <f t="shared" si="2"/>
+        <v>110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7837871035428981E-2</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32" s="10">
+        <f t="shared" si="4"/>
+        <v>169827.98000000045</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7581118653977402E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2062,23 +2726,44 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9969930789269058E-3</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
       <c r="H33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="I33" s="10">
+        <f t="shared" si="2"/>
+        <v>2602486.5199999809</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6564903115433454E-3</v>
+      </c>
       <c r="L33">
         <v>989572899.99999905</v>
       </c>
       <c r="M33">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="N33" s="10">
+        <f t="shared" si="4"/>
+        <v>5456610.5900000334</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="5"/>
+        <v>5.5141067323084929E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2088,23 +2773,44 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8939149738619768E-2</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
       <c r="H34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="I34" s="10">
+        <f t="shared" si="2"/>
+        <v>213011.23000001023</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8961345561534093E-2</v>
+      </c>
       <c r="L34">
         <v>4345600</v>
       </c>
       <c r="M34">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34" s="10">
+        <f t="shared" si="4"/>
+        <v>115798.49000000022</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6647296115611244E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2114,23 +2820,44 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2140,23 +2867,44 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36" s="10">
+        <f t="shared" si="0"/>
+        <v>62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>7.8647857679780775E-2</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
       <c r="H36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="10">
+        <f t="shared" si="2"/>
+        <v>157733.05000000098</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="3"/>
+        <v>0.17551246244575608</v>
+      </c>
       <c r="L36">
         <v>878300</v>
       </c>
       <c r="M36">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="N36" s="10">
+        <f t="shared" si="4"/>
+        <v>101084.71000000101</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11509132414892521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2166,23 +2914,44 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37" s="10">
+        <f t="shared" si="0"/>
+        <v>82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9444515758219188E-2</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
       <c r="H37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37" s="10">
+        <f t="shared" si="2"/>
+        <v>110256.79000000004</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9460250314014013E-2</v>
+      </c>
       <c r="L37">
         <v>2296900</v>
       </c>
       <c r="M37">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37" s="10">
+        <f t="shared" si="4"/>
+        <v>188181.66000000015</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="5"/>
+        <v>8.1928538464887526E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,23 +2961,44 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38" s="10">
+        <f t="shared" si="0"/>
+        <v>16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9443680579913542E-2</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38" s="10">
+        <f t="shared" si="2"/>
+        <v>39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9631735620585316E-2</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38" s="10">
+        <f t="shared" si="4"/>
+        <v>136.73999999999069</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7580354847003174E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,23 +3008,44 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39" s="10">
+        <f t="shared" si="0"/>
+        <v>70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>8.008952370177623E-2</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39" s="10">
+        <f t="shared" si="2"/>
+        <v>180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13918241656366656</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="10">
+        <f t="shared" si="4"/>
+        <v>79036.1300000099</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4919653310605226E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,23 +3055,44 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40" s="10">
+        <f t="shared" si="0"/>
+        <v>816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>2.1279773539092578E-2</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40" s="10">
+        <f t="shared" si="2"/>
+        <v>1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>4.6782546934937892E-2</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="N40" s="10">
+        <f t="shared" si="4"/>
+        <v>610436.29000010341</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="5"/>
+        <v>1.5178676768608648E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,23 +3102,44 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41" s="10">
+        <f t="shared" si="0"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0110550149132493E-2</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41" s="10">
+        <f t="shared" si="2"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6221894095689226E-2</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="10">
+        <f t="shared" si="4"/>
+        <v>82077.349999999627</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7099804162586642E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,23 +3149,44 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2070943135841053E-4</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42" s="10">
+        <f t="shared" si="2"/>
+        <v>2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1928203241796942E-2</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="10">
+        <f t="shared" si="4"/>
+        <v>36.250001013278961</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8129115815929696E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,23 +3196,44 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0497353541313264E-2</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43" s="10">
+        <f t="shared" si="2"/>
+        <v>389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5477990374731388E-2</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="10">
+        <f t="shared" si="4"/>
+        <v>346517.43000000995</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0778750220654303E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,23 +3243,44 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7760750186150751E-3</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44" s="10">
+        <f t="shared" si="2"/>
+        <v>246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="3"/>
+        <v>7.9569249404813532E-3</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44" s="10">
+        <f t="shared" si="4"/>
+        <v>58.75</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8780648419868168E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,23 +3290,44 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>1.287514194887851E-2</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45" s="10">
+        <f t="shared" si="2"/>
+        <v>2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8689222111488959E-2</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45" s="10">
+        <f t="shared" si="4"/>
+        <v>640550.34000010043</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1432866237947358E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,23 +3337,44 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0010420686993711E-3</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46" s="10">
+        <f t="shared" si="2"/>
+        <v>8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>3.2319887218048821E-2</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46" s="10">
+        <f t="shared" si="4"/>
+        <v>12346.840000000986</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="5"/>
+        <v>4.6225533508053113E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,23 +3384,44 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7435939690898361E-4</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47" s="10">
+        <f t="shared" si="2"/>
+        <v>24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3291600310348285E-4</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="10">
+        <f t="shared" si="4"/>
+        <v>21970.820000097156</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9266019117572752E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,23 +3431,44 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1133192323107857E-2</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48" s="10">
+        <f t="shared" si="2"/>
+        <v>292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>4.0559890224125802E-2</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="N48" s="10">
+        <f t="shared" si="4"/>
+        <v>407449.76000001002</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="5"/>
+        <v>5.5893132870587676E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,23 +3478,44 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8444360086767971E-2</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49" s="10">
+        <f t="shared" si="2"/>
+        <v>7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="3"/>
+        <v>6.9523586744639335E-2</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,23 +3525,44 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="N50" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,23 +3572,44 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2785255822058129E-2</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51" s="10">
+        <f t="shared" si="2"/>
+        <v>326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6573903982970231E-2</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51" s="10">
+        <f t="shared" si="4"/>
+        <v>98056.689999999478</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1100045280114048E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,28 +3619,49 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>8.009596083231342E-2</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52" s="10">
+        <f t="shared" si="2"/>
+        <v>236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="3"/>
+        <v>9.6704683082722218E-2</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+      <c r="N52" s="10">
+        <f t="shared" si="4"/>
+        <v>264764.74</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11404408166781529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,46 +3671,46 @@
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,47 +3720,46 @@
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,52 +3769,51 @@
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +3821,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2774,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="7">
+      <c r="D89" s="12">
         <v>2</v>
       </c>
       <c r="E89" s="7"/>
@@ -2782,14 +3863,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -2802,7 +3883,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +3891,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +3899,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +3907,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2839,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="7">
+      <c r="D96" s="12">
         <v>2</v>
       </c>
       <c r="E96" s="7"/>
@@ -2847,14 +3928,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -2867,7 +3948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +3957,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +3966,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,12 +3975,6 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
@@ -2919,13 +3994,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4064,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDA806-1334-489C-8194-6695B6537C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5396BC-230F-4892-9573-232DD6468EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24060" yWindow="285" windowWidth="24000" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,12 +1270,16 @@
         <v>341243679.13</v>
       </c>
       <c r="D2" s="10">
-        <f>B2-C2</f>
-        <v>15396420.870000005</v>
+        <f>C2-B2</f>
+        <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="5">
-        <f>IFERROR((B2-C2)/B2,"-")</f>
-        <v>4.3170750765267295E-2</v>
+        <f>IFERROR((D2)/B2,"-")</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,0),"N/A")</f>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>382685200</v>
@@ -1284,12 +1288,16 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I2" s="10">
-        <f>G2-H2</f>
-        <v>36344389.180000007</v>
+        <f>H2-G2</f>
+        <v>-36344389.180000007</v>
       </c>
       <c r="J2" s="5">
-        <f>IFERROR((G2-H2)/G2,"-")</f>
-        <v>9.4972027086493035E-2</v>
+        <f>IFERROR((I2)/G2,"-")</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,0),"N/A")</f>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>376548600</v>
@@ -1298,12 +1306,16 @@
         <v>355279492.22999901</v>
       </c>
       <c r="N2" s="10">
-        <f>L2-M2</f>
-        <v>21269107.770000994</v>
+        <f>M2-L2</f>
+        <v>-21269107.770000994</v>
       </c>
       <c r="O2" s="5">
-        <f>IFERROR((L2-M2)/L2,"-")</f>
-        <v>5.6484362894991494E-2</v>
+        <f>IFERROR((N2)/L2,"-")</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2">
+        <f>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,0),"N/A")</f>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1317,12 +1329,16 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
-        <v>7585.4099999999744</v>
+        <f>C3-B3</f>
+        <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E52" si="1">IFERROR((B3-C3)/B3,"-")</f>
-        <v>2.3069981751824741E-2</v>
+        <f>IFERROR((D3)/B3,"-")</f>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(_xlfn.RANK.EQ(E3,E$2:E$52,0),"N/A")</f>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>334800</v>
@@ -1331,12 +1347,16 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I52" si="2">G3-H3</f>
-        <v>22366.290000001027</v>
+        <f>H3-G3</f>
+        <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J52" si="3">IFERROR((G3-H3)/G3,"-")</f>
-        <v>6.6804928315415249E-2</v>
+        <f>IFERROR((I3)/G3,"-")</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(_xlfn.RANK.EQ(J3,J$2:J$52,0),"N/A")</f>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>322700</v>
@@ -1345,12 +1365,16 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N52" si="4">L3-M3</f>
-        <v>436.96000000002095</v>
+        <f>M3-L3</f>
+        <v>-436.96000000002095</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O52" si="5">IFERROR((L3-M3)/L3,"-")</f>
-        <v>1.3540749922529313E-3</v>
+        <f>IFERROR((N3)/L3,"-")</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3">
+        <f>IFERROR(_xlfn.RANK.EQ(O3,O$2:O$52,0),"N/A")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1364,12 +1388,16 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" si="0"/>
-        <v>15442.440000010189</v>
+        <f>C4-B4</f>
+        <v>-15442.440000010189</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>4.9327413275443007E-3</v>
+        <f>IFERROR((D4)/B4,"-")</f>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f>IFERROR(_xlfn.RANK.EQ(E4,E$2:E$52,0),"N/A")</f>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>3652300</v>
@@ -1378,12 +1406,16 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" si="2"/>
-        <v>62606.790000009816</v>
+        <f>H4-G4</f>
+        <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7141743558856015E-2</v>
+        <f>IFERROR((I4)/G4,"-")</f>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f>IFERROR(_xlfn.RANK.EQ(J4,J$2:J$52,0),"N/A")</f>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>3662400</v>
@@ -1392,12 +1424,16 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="4"/>
-        <v>97416.950000009965</v>
+        <f>M4-L4</f>
+        <v>-97416.950000009965</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6599210899959033E-2</v>
+        <f>IFERROR((N4)/L4,"-")</f>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4">
+        <f>IFERROR(_xlfn.RANK.EQ(O4,O$2:O$52,0),"N/A")</f>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1411,12 +1447,16 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>723147.33000000007</v>
+        <f>C5-B5</f>
+        <v>-723147.33000000007</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>9.4273968477453174E-2</v>
+        <f>IFERROR((D5)/B5,"-")</f>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f>IFERROR(_xlfn.RANK.EQ(E5,E$2:E$52,0),"N/A")</f>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>7968300</v>
@@ -1425,12 +1465,16 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="2"/>
-        <v>947690.6799999997</v>
+        <f>H5-G5</f>
+        <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.118932605449092</v>
+        <f>IFERROR((I5)/G5,"-")</f>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f>IFERROR(_xlfn.RANK.EQ(J5,J$2:J$52,0),"N/A")</f>
+        <v>44</v>
       </c>
       <c r="L5">
         <v>7759600</v>
@@ -1439,12 +1483,16 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="4"/>
-        <v>262277.08999999985</v>
+        <f>M5-L5</f>
+        <v>-262277.08999999985</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="5"/>
-        <v>3.3800336357544182E-2</v>
+        <f>IFERROR((N5)/L5,"-")</f>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5">
+        <f>IFERROR(_xlfn.RANK.EQ(O5,O$2:O$52,0),"N/A")</f>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1458,12 +1506,16 @@
         <v>385908.52</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>23391.479999999981</v>
+        <f>C6-B6</f>
+        <v>-23391.479999999981</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7149963352064452E-2</v>
+        <f>IFERROR((D6)/B6,"-")</f>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f>IFERROR(_xlfn.RANK.EQ(E6,E$2:E$52,0),"N/A")</f>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>428500</v>
@@ -1472,12 +1524,16 @@
         <v>427758.64</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>741.35999999998603</v>
+        <f>H6-G6</f>
+        <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7301283547257551E-3</v>
+        <f>IFERROR((I6)/G6,"-")</f>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f>IFERROR(_xlfn.RANK.EQ(J6,J$2:J$52,0),"N/A")</f>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>445200</v>
@@ -1486,12 +1542,16 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="4"/>
-        <v>85.710000001010485</v>
+        <f>M6-L6</f>
+        <v>-85.710000001010485</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="5"/>
-        <v>1.925202156356929E-4</v>
+        <f>IFERROR((N6)/L6,"-")</f>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6">
+        <f>IFERROR(_xlfn.RANK.EQ(O6,O$2:O$52,0),"N/A")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1505,12 +1565,16 @@
         <v>2946071.21</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>382928.79000000004</v>
+        <f>C7-B7</f>
+        <v>-382928.79000000004</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.11502817362571344</v>
+        <f>IFERROR((D7)/B7,"-")</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f>IFERROR(_xlfn.RANK.EQ(E7,E$2:E$52,0),"N/A")</f>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3390900</v>
@@ -1519,12 +1583,16 @@
         <v>3051483.41</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>339416.58999999985</v>
+        <f>H7-G7</f>
+        <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10009631366303927</v>
+        <f>IFERROR((I7)/G7,"-")</f>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f>IFERROR(_xlfn.RANK.EQ(J7,J$2:J$52,0),"N/A")</f>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>3345200</v>
@@ -1533,12 +1601,16 @@
         <v>2946440.08</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="4"/>
-        <v>398759.91999999993</v>
+        <f>M7-L7</f>
+        <v>-398759.91999999993</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="5"/>
-        <v>0.11920361114432618</v>
+        <f>IFERROR((N7)/L7,"-")</f>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7">
+        <f>IFERROR(_xlfn.RANK.EQ(O7,O$2:O$52,0),"N/A")</f>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1552,12 +1624,16 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>236476.69000000996</v>
+        <f>C8-B8</f>
+        <v>-236476.69000000996</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.15235918433091292</v>
+        <f>IFERROR((D8)/B8,"-")</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f>IFERROR(_xlfn.RANK.EQ(E8,E$2:E$52,0),"N/A")</f>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1590700</v>
@@ -1566,12 +1642,16 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>206794.01000001002</v>
+        <f>H8-G8</f>
+        <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.13000189224870184</v>
+        <f>IFERROR((I8)/G8,"-")</f>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f>IFERROR(_xlfn.RANK.EQ(J8,J$2:J$52,0),"N/A")</f>
+        <v>45</v>
       </c>
       <c r="L8">
         <v>1579300</v>
@@ -1580,12 +1660,16 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="4"/>
-        <v>241564.68000000995</v>
+        <f>M8-L8</f>
+        <v>-241564.68000000995</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="5"/>
-        <v>0.15295680364719175</v>
+        <f>IFERROR((N8)/L8,"-")</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8">
+        <f>IFERROR(_xlfn.RANK.EQ(O8,O$2:O$52,0),"N/A")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1599,12 +1683,16 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>396574.72000000067</v>
+        <f>C9-B9</f>
+        <v>-396574.72000000067</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2417130511048909E-2</v>
+        <f>IFERROR((D9)/B9,"-")</f>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f>IFERROR(_xlfn.RANK.EQ(E9,E$2:E$52,0),"N/A")</f>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>11073700</v>
@@ -1613,12 +1701,16 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="2"/>
-        <v>1144640.4800000004</v>
+        <f>H9-G9</f>
+        <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10336567542917005</v>
+        <f>IFERROR((I9)/G9,"-")</f>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f>IFERROR(_xlfn.RANK.EQ(J9,J$2:J$52,0),"N/A")</f>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>10790500</v>
@@ -1627,12 +1719,16 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" si="4"/>
-        <v>796900.47000000998</v>
+        <f>M9-L9</f>
+        <v>-796900.47000000998</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="5"/>
-        <v>7.3852043000788653E-2</v>
+        <f>IFERROR((N9)/L9,"-")</f>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9">
+        <f>IFERROR(_xlfn.RANK.EQ(O9,O$2:O$52,0),"N/A")</f>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1646,12 +1742,16 @@
         <v>407090.37</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>36209.630000000005</v>
+        <f>C10-B10</f>
+        <v>-36209.630000000005</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>8.1681998646514792E-2</v>
+        <f>IFERROR((D10)/B10,"-")</f>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f>IFERROR(_xlfn.RANK.EQ(E10,E$2:E$52,0),"N/A")</f>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>495200</v>
@@ -1660,12 +1760,16 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="2"/>
-        <v>27292.159999999974</v>
+        <f>H10-G10</f>
+        <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
-        <v>5.5113408723747932E-2</v>
+        <f>IFERROR((I10)/G10,"-")</f>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f>IFERROR(_xlfn.RANK.EQ(J10,J$2:J$52,0),"N/A")</f>
+        <v>32</v>
       </c>
       <c r="L10">
         <v>487500</v>
@@ -1674,12 +1778,16 @@
         <v>478318.92</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="4"/>
-        <v>9181.0800000000163</v>
+        <f>M10-L10</f>
+        <v>-9181.0800000000163</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="5"/>
-        <v>1.883298461538465E-2</v>
+        <f>IFERROR((N10)/L10,"-")</f>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10">
+        <f>IFERROR(_xlfn.RANK.EQ(O10,O$2:O$52,0),"N/A")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1693,12 +1801,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="0"/>
+        <f>C11-B11</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR((D11)/B11,"-")</f>
         <v>-</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(E11,E$2:E$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1707,12 +1819,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="2"/>
+        <f>H11-G11</f>
         <v>0</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IFERROR((I11)/G11,"-")</f>
         <v>-</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(J11,J$2:J$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="L11">
         <v>375000</v>
@@ -1721,12 +1837,16 @@
         <v>63771.91</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="4"/>
-        <v>311228.08999999997</v>
+        <f>M11-L11</f>
+        <v>-311228.08999999997</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="5"/>
-        <v>0.82994157333333329</v>
+        <f>IFERROR((N11)/L11,"-")</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11">
+        <f>IFERROR(_xlfn.RANK.EQ(O11,O$2:O$52,0),"N/A")</f>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1740,12 +1860,16 @@
         <v>4066595.33</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>214304.66999999993</v>
+        <f>C12-B12</f>
+        <v>-214304.66999999993</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0060657805601608E-2</v>
+        <f>IFERROR((D12)/B12,"-")</f>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f>IFERROR(_xlfn.RANK.EQ(E12,E$2:E$52,0),"N/A")</f>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>4700400</v>
@@ -1754,12 +1878,16 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="2"/>
-        <v>494844.40000000037</v>
+        <f>H12-G12</f>
+        <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10527708280146378</v>
+        <f>IFERROR((I12)/G12,"-")</f>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f>IFERROR(_xlfn.RANK.EQ(J12,J$2:J$52,0),"N/A")</f>
+        <v>43</v>
       </c>
       <c r="L12">
         <v>4677800</v>
@@ -1768,12 +1896,16 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="4"/>
-        <v>306086.86000000034</v>
+        <f>M12-L12</f>
+        <v>-306086.86000000034</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="5"/>
-        <v>6.5433934755654441E-2</v>
+        <f>IFERROR((N12)/L12,"-")</f>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12">
+        <f>IFERROR(_xlfn.RANK.EQ(O12,O$2:O$52,0),"N/A")</f>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1787,12 +1919,16 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>75511.669999999925</v>
+        <f>C13-B13</f>
+        <v>-75511.669999999925</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2912833886247806E-2</v>
+        <f>IFERROR((D13)/B13,"-")</f>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f>IFERROR(_xlfn.RANK.EQ(E13,E$2:E$52,0),"N/A")</f>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>6223700</v>
@@ -1801,12 +1937,16 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>314622.06000000983</v>
+        <f>H13-G13</f>
+        <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
-        <v>5.0552253482656594E-2</v>
+        <f>IFERROR((I13)/G13,"-")</f>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f>IFERROR(_xlfn.RANK.EQ(J13,J$2:J$52,0),"N/A")</f>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>6207300</v>
@@ -1815,12 +1955,16 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="4"/>
-        <v>150323.33000000007</v>
+        <f>M13-L13</f>
+        <v>-150323.33000000007</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="5"/>
-        <v>2.4217184605222895E-2</v>
+        <f>IFERROR((N13)/L13,"-")</f>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13">
+        <f>IFERROR(_xlfn.RANK.EQ(O13,O$2:O$52,0),"N/A")</f>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1834,12 +1978,16 @@
         <v>505017.37</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>6982.6300000000047</v>
+        <f>C14-B14</f>
+        <v>-6982.6300000000047</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3637949218750009E-2</v>
+        <f>IFERROR((D14)/B14,"-")</f>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f>IFERROR(_xlfn.RANK.EQ(E14,E$2:E$52,0),"N/A")</f>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>530500</v>
@@ -1848,12 +1996,16 @@
         <v>524402.98</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="2"/>
-        <v>6097.0200000000186</v>
+        <f>H14-G14</f>
+        <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="3"/>
-        <v>1.1492968897266765E-2</v>
+        <f>IFERROR((I14)/G14,"-")</f>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f>IFERROR(_xlfn.RANK.EQ(J14,J$2:J$52,0),"N/A")</f>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>526200</v>
@@ -1862,12 +2014,16 @@
         <v>504989.88</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="4"/>
-        <v>21210.119999999995</v>
+        <f>M14-L14</f>
+        <v>-21210.119999999995</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0308095781071827E-2</v>
+        <f>IFERROR((N14)/L14,"-")</f>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14">
+        <f>IFERROR(_xlfn.RANK.EQ(O14,O$2:O$52,0),"N/A")</f>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1881,12 +2037,16 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>-496819.90000000596</v>
+        <f>C15-B15</f>
+        <v>496819.90000000596</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.1837408866824991E-3</v>
+        <f>IFERROR((D15)/B15,"-")</f>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f>IFERROR(_xlfn.RANK.EQ(E15,E$2:E$52,0),"N/A")</f>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -1895,12 +2055,16 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>8201410.7500010133</v>
+        <f>H15-G15</f>
+        <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
-        <v>4.4532273014072019E-2</v>
+        <f>IFERROR((I15)/G15,"-")</f>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f>IFERROR(_xlfn.RANK.EQ(J15,J$2:J$52,0),"N/A")</f>
+        <v>25</v>
       </c>
       <c r="L15">
         <v>188953500</v>
@@ -1909,12 +2073,16 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="4"/>
-        <v>4502589.1500009894</v>
+        <f>M15-L15</f>
+        <v>-4502589.1500009894</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3829085727446114E-2</v>
+        <f>IFERROR((N15)/L15,"-")</f>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15">
+        <f>IFERROR(_xlfn.RANK.EQ(O15,O$2:O$52,0),"N/A")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1928,12 +2096,16 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>78219.540000010282</v>
+        <f>C16-B16</f>
+        <v>-78219.540000010282</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1850188616360429E-2</v>
+        <f>IFERROR((D16)/B16,"-")</f>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f>IFERROR(_xlfn.RANK.EQ(E16,E$2:E$52,0),"N/A")</f>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>7352500</v>
@@ -1942,12 +2114,16 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>2035.9199999999255</v>
+        <f>H16-G16</f>
+        <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>2.769017341040361E-4</v>
+        <f>IFERROR((I16)/G16,"-")</f>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f>IFERROR(_xlfn.RANK.EQ(J16,J$2:J$52,0),"N/A")</f>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>7397200</v>
@@ -1956,15 +2132,19 @@
         <v>7397093</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f>M16-L16</f>
+        <v>-107</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="5"/>
-        <v>1.4464932677229222E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N16)/L16,"-")</f>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16">
+        <f>IFERROR(_xlfn.RANK.EQ(O16,O$2:O$52,0),"N/A")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1975,12 +2155,16 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>421319.94999999925</v>
+        <f>C17-B17</f>
+        <v>-421319.94999999925</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8351094826658003E-2</v>
+        <f>IFERROR((D17)/B17,"-")</f>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f>IFERROR(_xlfn.RANK.EQ(E17,E$2:E$52,0),"N/A")</f>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>15309700</v>
@@ -1989,12 +2173,16 @@
         <v>14645233.51</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>664466.49000000022</v>
+        <f>H17-G17</f>
+        <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="3"/>
-        <v>4.3401666263871937E-2</v>
+        <f>IFERROR((I17)/G17,"-")</f>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f>IFERROR(_xlfn.RANK.EQ(J17,J$2:J$52,0),"N/A")</f>
+        <v>24</v>
       </c>
       <c r="L17">
         <v>15311800</v>
@@ -2003,15 +2191,19 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="4"/>
-        <v>965742.96000000089</v>
+        <f>M17-L17</f>
+        <v>-965742.96000000089</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="5"/>
-        <v>6.3071811282801551E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N17)/L17,"-")</f>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17">
+        <f>IFERROR(_xlfn.RANK.EQ(O17,O$2:O$52,0),"N/A")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2022,12 +2214,16 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>149396.10000000987</v>
+        <f>C18-B18</f>
+        <v>-149396.10000000987</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>5.4037002206391245E-2</v>
+        <f>IFERROR((D18)/B18,"-")</f>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f>IFERROR(_xlfn.RANK.EQ(E18,E$2:E$52,0),"N/A")</f>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2861000</v>
@@ -2036,12 +2232,16 @@
         <v>2671745.94</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>189254.06000000006</v>
+        <f>H18-G18</f>
+        <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="3"/>
-        <v>6.6149619014330668E-2</v>
+        <f>IFERROR((I18)/G18,"-")</f>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f>IFERROR(_xlfn.RANK.EQ(J18,J$2:J$52,0),"N/A")</f>
+        <v>34</v>
       </c>
       <c r="L18">
         <v>2910600</v>
@@ -2050,15 +2250,19 @@
         <v>2535637.09</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="4"/>
-        <v>374962.91000000015</v>
+        <f>M18-L18</f>
+        <v>-374962.91000000015</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="5"/>
-        <v>0.12882667147667154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N18)/L18,"-")</f>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18">
+        <f>IFERROR(_xlfn.RANK.EQ(O18,O$2:O$52,0),"N/A")</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2069,12 +2273,16 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>376336.80000001006</v>
+        <f>C19-B19</f>
+        <v>-376336.80000001006</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>4.258504294298146E-2</v>
+        <f>IFERROR((D19)/B19,"-")</f>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f>IFERROR(_xlfn.RANK.EQ(E19,E$2:E$52,0),"N/A")</f>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>9713300</v>
@@ -2083,12 +2291,16 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="2"/>
-        <v>721592.76000000909</v>
+        <f>H19-G19</f>
+        <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="3"/>
-        <v>7.4289145810384635E-2</v>
+        <f>IFERROR((I19)/G19,"-")</f>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f>IFERROR(_xlfn.RANK.EQ(J19,J$2:J$52,0),"N/A")</f>
+        <v>37</v>
       </c>
       <c r="L19">
         <v>9343000</v>
@@ -2097,15 +2309,19 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="4"/>
-        <v>576344.08999999985</v>
+        <f>M19-L19</f>
+        <v>-576344.08999999985</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="5"/>
-        <v>6.1687262121374278E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N19)/L19,"-")</f>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19">
+        <f>IFERROR(_xlfn.RANK.EQ(O19,O$2:O$52,0),"N/A")</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2116,12 +2332,16 @@
         <v>124384360.159999</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>1539.8400010019541</v>
+        <f>C20-B20</f>
+        <v>-1539.8400010019541</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2379538203300809E-5</v>
+        <f>IFERROR((D20)/B20,"-")</f>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f>IFERROR(_xlfn.RANK.EQ(E20,E$2:E$52,0),"N/A")</f>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>131849400</v>
@@ -2130,12 +2350,16 @@
         <v>131839624.37</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="2"/>
-        <v>9775.6299999952316</v>
+        <f>H20-G20</f>
+        <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
-        <v>7.4142392760188761E-5</v>
+        <f>IFERROR((I20)/G20,"-")</f>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f>IFERROR(_xlfn.RANK.EQ(J20,J$2:J$52,0),"N/A")</f>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>130621400</v>
@@ -2144,15 +2368,19 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="4"/>
-        <v>116.46000100672245</v>
+        <f>M20-L20</f>
+        <v>-116.46000100672245</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="5"/>
-        <v>8.9158438821450736E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N20)/L20,"-")</f>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20">
+        <f>IFERROR(_xlfn.RANK.EQ(O20,O$2:O$52,0),"N/A")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2163,12 +2391,16 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>1923512.4500000998</v>
+        <f>C21-B21</f>
+        <v>-1923512.4500000998</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9052463618023094E-2</v>
+        <f>IFERROR((D21)/B21,"-")</f>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f>IFERROR(_xlfn.RANK.EQ(E21,E$2:E$52,0),"N/A")</f>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>24497400</v>
@@ -2177,12 +2409,16 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="2"/>
-        <v>1841406.370000001</v>
+        <f>H21-G21</f>
+        <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
-        <v>7.5167420624229556E-2</v>
+        <f>IFERROR((I21)/G21,"-")</f>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f>IFERROR(_xlfn.RANK.EQ(J21,J$2:J$52,0),"N/A")</f>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>24323000</v>
@@ -2191,15 +2427,19 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="4"/>
-        <v>888926.91000010073</v>
+        <f>M21-L21</f>
+        <v>-888926.91000010073</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="5"/>
-        <v>3.6546762734864152E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N21)/L21,"-")</f>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21">
+        <f>IFERROR(_xlfn.RANK.EQ(O21,O$2:O$52,0),"N/A")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2210,12 +2450,16 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>153660.12000009976</v>
+        <f>C22-B22</f>
+        <v>-153660.12000009976</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3285502334437123E-2</v>
+        <f>IFERROR((D22)/B22,"-")</f>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f>IFERROR(_xlfn.RANK.EQ(E22,E$2:E$52,0),"N/A")</f>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>11980700</v>
@@ -2224,12 +2468,16 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="2"/>
-        <v>188722.03000009991</v>
+        <f>H22-G22</f>
+        <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5752170574348738E-2</v>
+        <f>IFERROR((I22)/G22,"-")</f>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f>IFERROR(_xlfn.RANK.EQ(J22,J$2:J$52,0),"N/A")</f>
+        <v>11</v>
       </c>
       <c r="L22">
         <v>11935200</v>
@@ -2238,15 +2486,19 @@
         <v>11934454.77</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="4"/>
-        <v>745.23000000044703</v>
+        <f>M22-L22</f>
+        <v>-745.23000000044703</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="5"/>
-        <v>6.2439674240938325E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N22)/L22,"-")</f>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22">
+        <f>IFERROR(_xlfn.RANK.EQ(O22,O$2:O$52,0),"N/A")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2257,12 +2509,16 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>825956.59000010043</v>
+        <f>C23-B23</f>
+        <v>-825956.59000010043</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9590110100806722E-2</v>
+        <f>IFERROR((D23)/B23,"-")</f>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f>IFERROR(_xlfn.RANK.EQ(E23,E$2:E$52,0),"N/A")</f>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>22683800</v>
@@ -2271,12 +2527,16 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="2"/>
-        <v>961673.78000010177</v>
+        <f>H23-G23</f>
+        <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
-        <v>4.2394738976719144E-2</v>
+        <f>IFERROR((I23)/G23,"-")</f>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f>IFERROR(_xlfn.RANK.EQ(J23,J$2:J$52,0),"N/A")</f>
+        <v>23</v>
       </c>
       <c r="L23">
         <v>23220300</v>
@@ -2285,15 +2545,19 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="4"/>
-        <v>601242.55999999866</v>
+        <f>M23-L23</f>
+        <v>-601242.55999999866</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5892971236375011E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N23)/L23,"-")</f>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23">
+        <f>IFERROR(_xlfn.RANK.EQ(O23,O$2:O$52,0),"N/A")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2304,12 +2568,16 @@
         <v>904969.19</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>12230.810000000056</v>
+        <f>C24-B24</f>
+        <v>-12230.810000000056</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3334943305713101E-2</v>
+        <f>IFERROR((D24)/B24,"-")</f>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f>IFERROR(_xlfn.RANK.EQ(E24,E$2:E$52,0),"N/A")</f>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>1112700</v>
@@ -2318,12 +2586,16 @@
         <v>1067214.42</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="2"/>
-        <v>45485.580000000075</v>
+        <f>H24-G24</f>
+        <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>4.087856565111897E-2</v>
+        <f>IFERROR((I24)/G24,"-")</f>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f>IFERROR(_xlfn.RANK.EQ(J24,J$2:J$52,0),"N/A")</f>
+        <v>21</v>
       </c>
       <c r="L24">
         <v>1112600</v>
@@ -2332,15 +2604,19 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="4"/>
-        <v>72.879999999888241</v>
+        <f>M24-L24</f>
+        <v>-72.879999999888241</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="5"/>
-        <v>6.5504224339284781E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N24)/L24,"-")</f>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24">
+        <f>IFERROR(_xlfn.RANK.EQ(O24,O$2:O$52,0),"N/A")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2351,12 +2627,16 @@
         <v>479149.53</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>4950.4699999999721</v>
+        <f>C25-B25</f>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0226130964676661E-2</v>
+        <f>IFERROR((D25)/B25,"-")</f>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f>IFERROR(_xlfn.RANK.EQ(E25,E$2:E$52,0),"N/A")</f>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>505200</v>
@@ -2365,12 +2645,16 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="2"/>
-        <v>8005.7900000010268</v>
+        <f>H25-G25</f>
+        <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5846773555029746E-2</v>
+        <f>IFERROR((I25)/G25,"-")</f>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f>IFERROR(_xlfn.RANK.EQ(J25,J$2:J$52,0),"N/A")</f>
+        <v>12</v>
       </c>
       <c r="L25">
         <v>496500</v>
@@ -2379,15 +2663,19 @@
         <v>494775.1</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="4"/>
-        <v>1724.9000000000233</v>
+        <f>M25-L25</f>
+        <v>-1724.9000000000233</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="5"/>
-        <v>3.4741188318228064E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N25)/L25,"-")</f>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25">
+        <f>IFERROR(_xlfn.RANK.EQ(O25,O$2:O$52,0),"N/A")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2398,12 +2686,16 @@
         <v>4801960.08</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="0"/>
-        <v>447839.91999999993</v>
+        <f>C26-B26</f>
+        <v>-447839.91999999993</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>8.5306091660634673E-2</v>
+        <f>IFERROR((D26)/B26,"-")</f>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f>IFERROR(_xlfn.RANK.EQ(E26,E$2:E$52,0),"N/A")</f>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>5442200</v>
@@ -2412,12 +2704,16 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="2"/>
-        <v>319870.97000000998</v>
+        <f>H26-G26</f>
+        <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
-        <v>5.8776040939327839E-2</v>
+        <f>IFERROR((I26)/G26,"-")</f>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f>IFERROR(_xlfn.RANK.EQ(J26,J$2:J$52,0),"N/A")</f>
+        <v>33</v>
       </c>
       <c r="L26">
         <v>5430700</v>
@@ -2426,15 +2722,19 @@
         <v>5117235.21</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="4"/>
-        <v>313464.79000000004</v>
+        <f>M26-L26</f>
+        <v>-313464.79000000004</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="5"/>
-        <v>5.7720881286022069E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N26)/L26,"-")</f>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26">
+        <f>IFERROR(_xlfn.RANK.EQ(O26,O$2:O$52,0),"N/A")</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2445,12 +2745,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="0"/>
+        <f>C27-B27</f>
         <v>0</v>
       </c>
       <c r="E27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR((D27)/B27,"-")</f>
         <v>-</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(E27,E$2:E$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2459,12 +2763,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="2"/>
+        <f>H27-G27</f>
         <v>0</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IFERROR((I27)/G27,"-")</f>
         <v>-</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(J27,J$2:J$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2473,15 +2781,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="4"/>
+        <f>M27-L27</f>
         <v>0</v>
       </c>
       <c r="O27" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f>IFERROR((N27)/L27,"-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(O27,O$2:O$52,0),"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2492,12 +2804,16 @@
         <v>1250442.02</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="0"/>
-        <v>132457.97999999998</v>
+        <f>C28-B28</f>
+        <v>-132457.97999999998</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
-        <v>9.5782760864849215E-2</v>
+        <f>IFERROR((D28)/B28,"-")</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f>IFERROR(_xlfn.RANK.EQ(E28,E$2:E$52,0),"N/A")</f>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>1545700</v>
@@ -2506,12 +2822,16 @@
         <v>1281335.23</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="2"/>
-        <v>264364.77</v>
+        <f>H28-G28</f>
+        <v>-264364.77</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.17103239309050916</v>
+        <f>IFERROR((I28)/G28,"-")</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f>IFERROR(_xlfn.RANK.EQ(J28,J$2:J$52,0),"N/A")</f>
+        <v>47</v>
       </c>
       <c r="L28">
         <v>1525900</v>
@@ -2520,15 +2840,19 @@
         <v>1393285.06</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="4"/>
-        <v>132614.93999999994</v>
+        <f>M28-L28</f>
+        <v>-132614.93999999994</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="5"/>
-        <v>8.6909325643882263E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N28)/L28,"-")</f>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28">
+        <f>IFERROR(_xlfn.RANK.EQ(O28,O$2:O$52,0),"N/A")</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2539,12 +2863,16 @@
         <v>2523884.71</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="0"/>
-        <v>37915.290000000037</v>
+        <f>C29-B29</f>
+        <v>-37915.290000000037</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4800253727847622E-2</v>
+        <f>IFERROR((D29)/B29,"-")</f>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f>IFERROR(_xlfn.RANK.EQ(E29,E$2:E$52,0),"N/A")</f>
+        <v>21</v>
       </c>
       <c r="G29">
         <v>2779500</v>
@@ -2553,12 +2881,16 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="2"/>
-        <v>114235.56000000983</v>
+        <f>H29-G29</f>
+        <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="3"/>
-        <v>4.1099320021590155E-2</v>
+        <f>IFERROR((I29)/G29,"-")</f>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f>IFERROR(_xlfn.RANK.EQ(J29,J$2:J$52,0),"N/A")</f>
+        <v>22</v>
       </c>
       <c r="L29">
         <v>2889900</v>
@@ -2567,15 +2899,19 @@
         <v>2889864.67</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>35.330000000074506</v>
+        <f>M29-L29</f>
+        <v>-35.330000000074506</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2225336516860273E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N29)/L29,"-")</f>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29">
+        <f>IFERROR(_xlfn.RANK.EQ(O29,O$2:O$52,0),"N/A")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2586,12 +2922,16 @@
         <v>12030494.1</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="0"/>
-        <v>101705.90000000037</v>
+        <f>C30-B30</f>
+        <v>-101705.90000000037</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
-        <v>8.3831374359143746E-3</v>
+        <f>IFERROR((D30)/B30,"-")</f>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f>IFERROR(_xlfn.RANK.EQ(E30,E$2:E$52,0),"N/A")</f>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>12735900</v>
@@ -2600,12 +2940,16 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="2"/>
-        <v>50385.720000099391</v>
+        <f>H30-G30</f>
+        <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="3"/>
-        <v>3.9561962641116366E-3</v>
+        <f>IFERROR((I30)/G30,"-")</f>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f>IFERROR(_xlfn.RANK.EQ(J30,J$2:J$52,0),"N/A")</f>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>12861300</v>
@@ -2614,15 +2958,19 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="4"/>
-        <v>35290.390000000596</v>
+        <f>M30-L30</f>
+        <v>-35290.390000000596</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7439209100169185E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N30)/L30,"-")</f>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30">
+        <f>IFERROR(_xlfn.RANK.EQ(O30,O$2:O$52,0),"N/A")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2633,12 +2981,16 @@
         <v>1740827.69</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="0"/>
-        <v>24772.310000000056</v>
+        <f>C31-B31</f>
+        <v>-24772.310000000056</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4030533529678329E-2</v>
+        <f>IFERROR((D31)/B31,"-")</f>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f>IFERROR(_xlfn.RANK.EQ(E31,E$2:E$52,0),"N/A")</f>
+        <v>20</v>
       </c>
       <c r="G31">
         <v>1823300</v>
@@ -2647,12 +2999,16 @@
         <v>1762676.85</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="2"/>
-        <v>60623.149999999907</v>
+        <f>H31-G31</f>
+        <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="3"/>
-        <v>3.3249136181648611E-2</v>
+        <f>IFERROR((I31)/G31,"-")</f>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f>IFERROR(_xlfn.RANK.EQ(J31,J$2:J$52,0),"N/A")</f>
+        <v>17</v>
       </c>
       <c r="L31">
         <v>1870700</v>
@@ -2661,15 +3017,19 @@
         <v>1801391.34</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="4"/>
-        <v>69308.659999999916</v>
+        <f>M31-L31</f>
+        <v>-69308.659999999916</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="5"/>
-        <v>3.7049585716576634E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N31)/L31,"-")</f>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31">
+        <f>IFERROR(_xlfn.RANK.EQ(O31,O$2:O$52,0),"N/A")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2680,12 +3040,16 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="0"/>
-        <v>73762.280000009574</v>
+        <f>C32-B32</f>
+        <v>-73762.280000009574</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2294942827617691E-2</v>
+        <f>IFERROR((D32)/B32,"-")</f>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f>IFERROR(_xlfn.RANK.EQ(E32,E$2:E$52,0),"N/A")</f>
+        <v>13</v>
       </c>
       <c r="G32">
         <v>6195500</v>
@@ -2694,12 +3058,16 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="2"/>
-        <v>110514.53000000026</v>
+        <f>H32-G32</f>
+        <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7837871035428981E-2</v>
+        <f>IFERROR((I32)/G32,"-")</f>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f>IFERROR(_xlfn.RANK.EQ(J32,J$2:J$52,0),"N/A")</f>
+        <v>14</v>
       </c>
       <c r="L32">
         <v>6157400</v>
@@ -2708,15 +3076,19 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" si="4"/>
-        <v>169827.98000000045</v>
+        <f>M32-L32</f>
+        <v>-169827.98000000045</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7581118653977402E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N32)/L32,"-")</f>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32">
+        <f>IFERROR(_xlfn.RANK.EQ(O32,O$2:O$52,0),"N/A")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2727,12 +3099,16 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="0"/>
-        <v>7418835.2699990273</v>
+        <f>C33-B33</f>
+        <v>-7418835.2699990273</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9969930789269058E-3</v>
+        <f>IFERROR((D33)/B33,"-")</f>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f>IFERROR(_xlfn.RANK.EQ(E33,E$2:E$52,0),"N/A")</f>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>979671000</v>
@@ -2741,12 +3117,16 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="2"/>
-        <v>2602486.5199999809</v>
+        <f>H33-G33</f>
+        <v>-2602486.5199999809</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6564903115433454E-3</v>
+        <f>IFERROR((I33)/G33,"-")</f>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f>IFERROR(_xlfn.RANK.EQ(J33,J$2:J$52,0),"N/A")</f>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>989572899.99999905</v>
@@ -2755,15 +3135,19 @@
         <v>984116289.40999901</v>
       </c>
       <c r="N33" s="10">
-        <f t="shared" si="4"/>
-        <v>5456610.5900000334</v>
+        <f>M33-L33</f>
+        <v>-5456610.5900000334</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="5"/>
-        <v>5.5141067323084929E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N33)/L33,"-")</f>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33">
+        <f>IFERROR(_xlfn.RANK.EQ(O33,O$2:O$52,0),"N/A")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2774,12 +3158,16 @@
         <v>4109958.22</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="0"/>
-        <v>79341.779999999795</v>
+        <f>C34-B34</f>
+        <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8939149738619768E-2</v>
+        <f>IFERROR((D34)/B34,"-")</f>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f>IFERROR(_xlfn.RANK.EQ(E34,E$2:E$52,0),"N/A")</f>
+        <v>23</v>
       </c>
       <c r="G34">
         <v>4350600</v>
@@ -2788,12 +3176,16 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="2"/>
-        <v>213011.23000001023</v>
+        <f>H34-G34</f>
+        <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="3"/>
-        <v>4.8961345561534093E-2</v>
+        <f>IFERROR((I34)/G34,"-")</f>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f>IFERROR(_xlfn.RANK.EQ(J34,J$2:J$52,0),"N/A")</f>
+        <v>28</v>
       </c>
       <c r="L34">
         <v>4345600</v>
@@ -2802,15 +3194,19 @@
         <v>4229801.51</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="4"/>
-        <v>115798.49000000022</v>
+        <f>M34-L34</f>
+        <v>-115798.49000000022</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6647296115611244E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N34)/L34,"-")</f>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34">
+        <f>IFERROR(_xlfn.RANK.EQ(O34,O$2:O$52,0),"N/A")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2821,12 +3217,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="0"/>
+        <f>C35-B35</f>
         <v>0</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR((D35)/B35,"-")</f>
         <v>-</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(E35,E$2:E$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2835,12 +3235,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="2"/>
+        <f>H35-G35</f>
         <v>0</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IFERROR((I35)/G35,"-")</f>
         <v>-</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(J35,J$2:J$52,0),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2849,15 +3253,19 @@
         <v>0</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" si="4"/>
+        <f>M35-L35</f>
         <v>0</v>
       </c>
       <c r="O35" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f>IFERROR((N35)/L35,"-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(O35,O$2:O$52,0),"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2868,12 +3276,16 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="0"/>
-        <v>62776.72000000102</v>
+        <f>C36-B36</f>
+        <v>-62776.72000000102</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
-        <v>7.8647857679780775E-2</v>
+        <f>IFERROR((D36)/B36,"-")</f>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f>IFERROR(_xlfn.RANK.EQ(E36,E$2:E$52,0),"N/A")</f>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>898700</v>
@@ -2882,12 +3294,16 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="2"/>
-        <v>157733.05000000098</v>
+        <f>H36-G36</f>
+        <v>-157733.05000000098</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="3"/>
-        <v>0.17551246244575608</v>
+        <f>IFERROR((I36)/G36,"-")</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f>IFERROR(_xlfn.RANK.EQ(J36,J$2:J$52,0),"N/A")</f>
+        <v>48</v>
       </c>
       <c r="L36">
         <v>878300</v>
@@ -2896,15 +3312,19 @@
         <v>777215.28999999899</v>
       </c>
       <c r="N36" s="10">
-        <f t="shared" si="4"/>
-        <v>101084.71000000101</v>
+        <f>M36-L36</f>
+        <v>-101084.71000000101</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="5"/>
-        <v>0.11509132414892521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N36)/L36,"-")</f>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36">
+        <f>IFERROR(_xlfn.RANK.EQ(O36,O$2:O$52,0),"N/A")</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2915,12 +3335,16 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="0"/>
-        <v>82352.260000010021</v>
+        <f>C37-B37</f>
+        <v>-82352.260000010021</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9444515758219188E-2</v>
+        <f>IFERROR((D37)/B37,"-")</f>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f>IFERROR(_xlfn.RANK.EQ(E37,E$2:E$52,0),"N/A")</f>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>2229200</v>
@@ -2929,12 +3353,16 @@
         <v>2118943.21</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="2"/>
-        <v>110256.79000000004</v>
+        <f>H37-G37</f>
+        <v>-110256.79000000004</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="3"/>
-        <v>4.9460250314014013E-2</v>
+        <f>IFERROR((I37)/G37,"-")</f>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f>IFERROR(_xlfn.RANK.EQ(J37,J$2:J$52,0),"N/A")</f>
+        <v>29</v>
       </c>
       <c r="L37">
         <v>2296900</v>
@@ -2943,15 +3371,19 @@
         <v>2108718.34</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" si="4"/>
-        <v>188181.66000000015</v>
+        <f>M37-L37</f>
+        <v>-188181.66000000015</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="5"/>
-        <v>8.1928538464887526E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N37)/L37,"-")</f>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37">
+        <f>IFERROR(_xlfn.RANK.EQ(O37,O$2:O$52,0),"N/A")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2962,12 +3394,16 @@
         <v>838669.82</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="0"/>
-        <v>16630.180000000051</v>
+        <f>C38-B38</f>
+        <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9443680579913542E-2</v>
+        <f>IFERROR((D38)/B38,"-")</f>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f>IFERROR(_xlfn.RANK.EQ(E38,E$2:E$52,0),"N/A")</f>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>792800</v>
@@ -2976,12 +3412,16 @@
         <v>753451.96</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="2"/>
-        <v>39348.040000000037</v>
+        <f>H38-G38</f>
+        <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="3"/>
-        <v>4.9631735620585316E-2</v>
+        <f>IFERROR((I38)/G38,"-")</f>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f>IFERROR(_xlfn.RANK.EQ(J38,J$2:J$52,0),"N/A")</f>
+        <v>30</v>
       </c>
       <c r="L38">
         <v>777800</v>
@@ -2990,15 +3430,19 @@
         <v>777663.26</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="4"/>
-        <v>136.73999999999069</v>
+        <f>M38-L38</f>
+        <v>-136.73999999999069</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7580354847003174E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N38)/L38,"-")</f>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38">
+        <f>IFERROR(_xlfn.RANK.EQ(O38,O$2:O$52,0),"N/A")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3009,12 +3453,16 @@
         <v>813108.87</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="0"/>
-        <v>70791.13</v>
+        <f>C39-B39</f>
+        <v>-70791.13</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="1"/>
-        <v>8.008952370177623E-2</v>
+        <f>IFERROR((D39)/B39,"-")</f>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f>IFERROR(_xlfn.RANK.EQ(E39,E$2:E$52,0),"N/A")</f>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1294400</v>
@@ -3023,12 +3471,16 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="2"/>
-        <v>180157.72000000998</v>
+        <f>H39-G39</f>
+        <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="3"/>
-        <v>0.13918241656366656</v>
+        <f>IFERROR((I39)/G39,"-")</f>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f>IFERROR(_xlfn.RANK.EQ(J39,J$2:J$52,0),"N/A")</f>
+        <v>46</v>
       </c>
       <c r="L39">
         <v>1759500</v>
@@ -3037,15 +3489,19 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="4"/>
-        <v>79036.1300000099</v>
+        <f>M39-L39</f>
+        <v>-79036.1300000099</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="5"/>
-        <v>4.4919653310605226E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N39)/L39,"-")</f>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39">
+        <f>IFERROR(_xlfn.RANK.EQ(O39,O$2:O$52,0),"N/A")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3056,12 +3512,16 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="0"/>
-        <v>816758.14000009745</v>
+        <f>C40-B40</f>
+        <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1279773539092578E-2</v>
+        <f>IFERROR((D40)/B40,"-")</f>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f>IFERROR(_xlfn.RANK.EQ(E40,E$2:E$52,0),"N/A")</f>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>39964900</v>
@@ -3070,12 +3530,16 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="2"/>
-        <v>1869659.8100000992</v>
+        <f>H40-G40</f>
+        <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="3"/>
-        <v>4.6782546934937892E-2</v>
+        <f>IFERROR((I40)/G40,"-")</f>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f>IFERROR(_xlfn.RANK.EQ(J40,J$2:J$52,0),"N/A")</f>
+        <v>27</v>
       </c>
       <c r="L40">
         <v>40216700</v>
@@ -3084,15 +3548,19 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="4"/>
-        <v>610436.29000010341</v>
+        <f>M40-L40</f>
+        <v>-610436.29000010341</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5178676768608648E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N40)/L40,"-")</f>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40">
+        <f>IFERROR(_xlfn.RANK.EQ(O40,O$2:O$52,0),"N/A")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3103,12 +3571,16 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="0"/>
-        <v>184239.79000001028</v>
+        <f>C41-B41</f>
+        <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
-        <v>4.0110550149132493E-2</v>
+        <f>IFERROR((D41)/B41,"-")</f>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f>IFERROR(_xlfn.RANK.EQ(E41,E$2:E$52,0),"N/A")</f>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>5089500</v>
@@ -3117,12 +3589,16 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="2"/>
-        <v>133456.33000001032</v>
+        <f>H41-G41</f>
+        <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6221894095689226E-2</v>
+        <f>IFERROR((I41)/G41,"-")</f>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f>IFERROR(_xlfn.RANK.EQ(J41,J$2:J$52,0),"N/A")</f>
+        <v>15</v>
       </c>
       <c r="L41">
         <v>4799900</v>
@@ -3131,15 +3607,19 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="4"/>
-        <v>82077.349999999627</v>
+        <f>M41-L41</f>
+        <v>-82077.349999999627</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7099804162586642E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N41)/L41,"-")</f>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41">
+        <f>IFERROR(_xlfn.RANK.EQ(O41,O$2:O$52,0),"N/A")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3150,12 +3630,16 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="0"/>
-        <v>41624.320001006126</v>
+        <f>C42-B42</f>
+        <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2070943135841053E-4</v>
+        <f>IFERROR((D42)/B42,"-")</f>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f>IFERROR(_xlfn.RANK.EQ(E42,E$2:E$52,0),"N/A")</f>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>199130300</v>
@@ -3164,12 +3648,16 @@
         <v>196755033.31</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="2"/>
-        <v>2375266.6899999976</v>
+        <f>H42-G42</f>
+        <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="3"/>
-        <v>1.1928203241796942E-2</v>
+        <f>IFERROR((I42)/G42,"-")</f>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f>IFERROR(_xlfn.RANK.EQ(J42,J$2:J$52,0),"N/A")</f>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>199954600</v>
@@ -3178,15 +3666,19 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N42" s="10">
-        <f t="shared" si="4"/>
-        <v>36.250001013278961</v>
+        <f>M42-L42</f>
+        <v>-36.250001013278961</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8129115815929696E-7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N42)/L42,"-")</f>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42">
+        <f>IFERROR(_xlfn.RANK.EQ(O42,O$2:O$52,0),"N/A")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -3197,12 +3689,16 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" si="0"/>
-        <v>166754.16999999993</v>
+        <f>C43-B43</f>
+        <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0497353541313264E-2</v>
+        <f>IFERROR((D43)/B43,"-")</f>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f>IFERROR(_xlfn.RANK.EQ(E43,E$2:E$52,0),"N/A")</f>
+        <v>25</v>
       </c>
       <c r="G43">
         <v>8560800</v>
@@ -3211,12 +3707,16 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="2"/>
-        <v>389327.98000000045</v>
+        <f>H43-G43</f>
+        <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="3"/>
-        <v>4.5477990374731388E-2</v>
+        <f>IFERROR((I43)/G43,"-")</f>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f>IFERROR(_xlfn.RANK.EQ(J43,J$2:J$52,0),"N/A")</f>
+        <v>26</v>
       </c>
       <c r="L43">
         <v>8497500</v>
@@ -3225,15 +3725,19 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="4"/>
-        <v>346517.43000000995</v>
+        <f>M43-L43</f>
+        <v>-346517.43000000995</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0778750220654303E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N43)/L43,"-")</f>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43">
+        <f>IFERROR(_xlfn.RANK.EQ(O43,O$2:O$52,0),"N/A")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3244,12 +3748,16 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" si="0"/>
-        <v>294095.62000000104</v>
+        <f>C44-B44</f>
+        <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
-        <v>9.7760750186150751E-3</v>
+        <f>IFERROR((D44)/B44,"-")</f>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f>IFERROR(_xlfn.RANK.EQ(E44,E$2:E$52,0),"N/A")</f>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>31040700</v>
@@ -3258,12 +3766,16 @@
         <v>30793711.48</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="2"/>
-        <v>246988.51999999955</v>
+        <f>H44-G44</f>
+        <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="3"/>
-        <v>7.9569249404813532E-3</v>
+        <f>IFERROR((I44)/G44,"-")</f>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f>IFERROR(_xlfn.RANK.EQ(J44,J$2:J$52,0),"N/A")</f>
+        <v>8</v>
       </c>
       <c r="L44">
         <v>31282200</v>
@@ -3272,15 +3784,19 @@
         <v>31282141.25</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="4"/>
-        <v>58.75</v>
+        <f>M44-L44</f>
+        <v>-58.75</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8780648419868168E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N44)/L44,"-")</f>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44">
+        <f>IFERROR(_xlfn.RANK.EQ(O44,O$2:O$52,0),"N/A")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3291,12 +3807,16 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D45" s="10">
-        <f t="shared" si="0"/>
-        <v>712015.95000009984</v>
+        <f>C45-B45</f>
+        <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
-        <v>1.287514194887851E-2</v>
+        <f>IFERROR((D45)/B45,"-")</f>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f>IFERROR(_xlfn.RANK.EQ(E45,E$2:E$52,0),"N/A")</f>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>56792200</v>
@@ -3305,12 +3825,16 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="2"/>
-        <v>2197246.0400001034</v>
+        <f>H45-G45</f>
+        <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="3"/>
-        <v>3.8689222111488959E-2</v>
+        <f>IFERROR((I45)/G45,"-")</f>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f>IFERROR(_xlfn.RANK.EQ(J45,J$2:J$52,0),"N/A")</f>
+        <v>19</v>
       </c>
       <c r="L45">
         <v>56027100</v>
@@ -3319,15 +3843,19 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N45" s="10">
-        <f t="shared" si="4"/>
-        <v>640550.34000010043</v>
+        <f>M45-L45</f>
+        <v>-640550.34000010043</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1432866237947358E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N45)/L45,"-")</f>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45">
+        <f>IFERROR(_xlfn.RANK.EQ(O45,O$2:O$52,0),"N/A")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -3338,12 +3866,16 @@
         <v>258322.43</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="0"/>
-        <v>777.57000000000698</v>
+        <f>C46-B46</f>
+        <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
-        <v>3.0010420686993711E-3</v>
+        <f>IFERROR((D46)/B46,"-")</f>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f>IFERROR(_xlfn.RANK.EQ(E46,E$2:E$52,0),"N/A")</f>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>266000</v>
@@ -3352,12 +3884,16 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="2"/>
-        <v>8597.090000000986</v>
+        <f>H46-G46</f>
+        <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="3"/>
-        <v>3.2319887218048821E-2</v>
+        <f>IFERROR((I46)/G46,"-")</f>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f>IFERROR(_xlfn.RANK.EQ(J46,J$2:J$52,0),"N/A")</f>
+        <v>16</v>
       </c>
       <c r="L46">
         <v>267100</v>
@@ -3366,15 +3902,19 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="4"/>
-        <v>12346.840000000986</v>
+        <f>M46-L46</f>
+        <v>-12346.840000000986</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="5"/>
-        <v>4.6225533508053113E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N46)/L46,"-")</f>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46">
+        <f>IFERROR(_xlfn.RANK.EQ(O46,O$2:O$52,0),"N/A")</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3385,12 +3925,16 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" si="0"/>
-        <v>12273.280000001192</v>
+        <f>C47-B47</f>
+        <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7435939690898361E-4</v>
+        <f>IFERROR((D47)/B47,"-")</f>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f>IFERROR(_xlfn.RANK.EQ(E47,E$2:E$52,0),"N/A")</f>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>73467000</v>
@@ -3399,12 +3943,16 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="2"/>
-        <v>24458.340000003576</v>
+        <f>H47-G47</f>
+        <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="3"/>
-        <v>3.3291600310348285E-4</v>
+        <f>IFERROR((I47)/G47,"-")</f>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f>IFERROR(_xlfn.RANK.EQ(J47,J$2:J$52,0),"N/A")</f>
+        <v>4</v>
       </c>
       <c r="L47">
         <v>75072800</v>
@@ -3413,15 +3961,19 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="4"/>
-        <v>21970.820000097156</v>
+        <f>M47-L47</f>
+        <v>-21970.820000097156</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="5"/>
-        <v>2.9266019117572752E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N47)/L47,"-")</f>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47">
+        <f>IFERROR(_xlfn.RANK.EQ(O47,O$2:O$52,0),"N/A")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3432,12 +3984,16 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="0"/>
-        <v>209747.43000000995</v>
+        <f>C48-B48</f>
+        <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1133192323107857E-2</v>
+        <f>IFERROR((D48)/B48,"-")</f>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f>IFERROR(_xlfn.RANK.EQ(E48,E$2:E$52,0),"N/A")</f>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>7214700</v>
@@ -3446,12 +4002,16 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="2"/>
-        <v>292627.44000000041</v>
+        <f>H48-G48</f>
+        <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="3"/>
-        <v>4.0559890224125802E-2</v>
+        <f>IFERROR((I48)/G48,"-")</f>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f>IFERROR(_xlfn.RANK.EQ(J48,J$2:J$52,0),"N/A")</f>
+        <v>20</v>
       </c>
       <c r="L48">
         <v>7289800</v>
@@ -3460,15 +4020,19 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="4"/>
-        <v>407449.76000001002</v>
+        <f>M48-L48</f>
+        <v>-407449.76000001002</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="5"/>
-        <v>5.5893132870587676E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N48)/L48,"-")</f>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48">
+        <f>IFERROR(_xlfn.RANK.EQ(O48,O$2:O$52,0),"N/A")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3479,12 +4043,16 @@
         <v>90499.43</v>
       </c>
       <c r="D49" s="10">
-        <f t="shared" si="0"/>
-        <v>1700.570000000007</v>
+        <f>C49-B49</f>
+        <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8444360086767971E-2</v>
+        <f>IFERROR((D49)/B49,"-")</f>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f>IFERROR(_xlfn.RANK.EQ(E49,E$2:E$52,0),"N/A")</f>
+        <v>22</v>
       </c>
       <c r="G49">
         <v>102600</v>
@@ -3493,12 +4061,16 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="2"/>
-        <v>7133.1199999999953</v>
+        <f>H49-G49</f>
+        <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="3"/>
-        <v>6.9523586744639335E-2</v>
+        <f>IFERROR((I49)/G49,"-")</f>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f>IFERROR(_xlfn.RANK.EQ(J49,J$2:J$52,0),"N/A")</f>
+        <v>36</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3507,15 +4079,19 @@
         <v>0</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" si="4"/>
+        <f>M49-L49</f>
         <v>0</v>
       </c>
       <c r="O49" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f>IFERROR((N49)/L49,"-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(O49,O$2:O$52,0),"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3526,12 +4102,16 @@
         <v>832600</v>
       </c>
       <c r="D50" s="10">
-        <f t="shared" si="0"/>
+        <f>C50-B50</f>
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
+        <f>IFERROR((D50)/B50,"-")</f>
         <v>0</v>
+      </c>
+      <c r="F50">
+        <f>IFERROR(_xlfn.RANK.EQ(E50,E$2:E$52,0),"N/A")</f>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>859100</v>
@@ -3540,12 +4120,16 @@
         <v>859100</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="2"/>
+        <f>H50-G50</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="3"/>
+        <f>IFERROR((I50)/G50,"-")</f>
         <v>0</v>
+      </c>
+      <c r="K50">
+        <f>IFERROR(_xlfn.RANK.EQ(J50,J$2:J$52,0),"N/A")</f>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>843200</v>
@@ -3554,15 +4138,19 @@
         <v>843200</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="4"/>
+        <f>M50-L50</f>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR((N50)/L50,"-")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f>IFERROR(_xlfn.RANK.EQ(O50,O$2:O$52,0),"N/A")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3573,12 +4161,16 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D51" s="10">
-        <f t="shared" si="0"/>
-        <v>110074.66000000946</v>
+        <f>C51-B51</f>
+        <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2785255822058129E-2</v>
+        <f>IFERROR((D51)/B51,"-")</f>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f>IFERROR(_xlfn.RANK.EQ(E51,E$2:E$52,0),"N/A")</f>
+        <v>14</v>
       </c>
       <c r="G51">
         <v>8925500</v>
@@ -3587,12 +4179,16 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="2"/>
-        <v>326440.38000000082</v>
+        <f>H51-G51</f>
+        <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="3"/>
-        <v>3.6573903982970231E-2</v>
+        <f>IFERROR((I51)/G51,"-")</f>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f>IFERROR(_xlfn.RANK.EQ(J51,J$2:J$52,0),"N/A")</f>
+        <v>18</v>
       </c>
       <c r="L51">
         <v>8833900</v>
@@ -3601,15 +4197,19 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N51" s="10">
-        <f t="shared" si="4"/>
-        <v>98056.689999999478</v>
+        <f>M51-L51</f>
+        <v>-98056.689999999478</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1100045280114048E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N51)/L51,"-")</f>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51">
+        <f>IFERROR(_xlfn.RANK.EQ(O51,O$2:O$52,0),"N/A")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3620,12 +4220,16 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D52" s="10">
-        <f t="shared" si="0"/>
-        <v>196315.20000000019</v>
+        <f>C52-B52</f>
+        <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>8.009596083231342E-2</v>
+        <f>IFERROR((D52)/B52,"-")</f>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f>IFERROR(_xlfn.RANK.EQ(E52,E$2:E$52,0),"N/A")</f>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>2440700</v>
@@ -3634,12 +4238,16 @@
         <v>2204672.88</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="2"/>
-        <v>236027.12000000011</v>
+        <f>H52-G52</f>
+        <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="3"/>
-        <v>9.6704683082722218E-2</v>
+        <f>IFERROR((I52)/G52,"-")</f>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f>IFERROR(_xlfn.RANK.EQ(J52,J$2:J$52,0),"N/A")</f>
+        <v>40</v>
       </c>
       <c r="L52">
         <v>2321600</v>
@@ -3648,20 +4256,24 @@
         <v>2056835.26</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="4"/>
-        <v>264764.74</v>
+        <f>M52-L52</f>
+        <v>-264764.74</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="5"/>
-        <v>0.11404408166781529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IFERROR((N52)/L52,"-")</f>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52">
+        <f>IFERROR(_xlfn.RANK.EQ(O52,O$2:O$52,0),"N/A")</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3675,42 +4287,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5396BC-230F-4892-9573-232DD6468EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9A4D1-62A3-4E7C-802B-84B2C5AD6BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="285" windowWidth="24000" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28290" yWindow="285" windowWidth="28230" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,16 +1270,16 @@
         <v>341243679.13</v>
       </c>
       <c r="D2" s="10">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="5">
-        <f>IFERROR((D2)/B2,"-")</f>
+        <f t="shared" ref="E2:E33" si="1">IFERROR((D2)/B2,"-")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
-        <f>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,0),"N/A")</f>
-        <v>35</v>
+        <f>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,1),"N/A")</f>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>382685200</v>
@@ -1288,16 +1288,16 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I2" s="10">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I33" si="2">H2-G2</f>
         <v>-36344389.180000007</v>
       </c>
       <c r="J2" s="5">
-        <f>IFERROR((I2)/G2,"-")</f>
+        <f t="shared" ref="J2:J52" si="3">IFERROR((I2)/G2,"-")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K2">
-        <f>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,0),"N/A")</f>
-        <v>39</v>
+        <f>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"N/A")</f>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>376548600</v>
@@ -1306,16 +1306,16 @@
         <v>355279492.22999901</v>
       </c>
       <c r="N2" s="10">
-        <f>M2-L2</f>
+        <f t="shared" ref="N2:N33" si="4">M2-L2</f>
         <v>-21269107.770000994</v>
       </c>
       <c r="O2" s="5">
-        <f>IFERROR((N2)/L2,"-")</f>
+        <f t="shared" ref="O2:O33" si="5">IFERROR((N2)/L2,"-")</f>
         <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P2">
-        <f>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,0),"N/A")</f>
-        <v>35</v>
+        <f>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"N/A")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1329,16 +1329,16 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D3" s="10">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5">
-        <f>IFERROR((D3)/B3,"-")</f>
+        <f t="shared" si="1"/>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
-        <f>IFERROR(_xlfn.RANK.EQ(E3,E$2:E$52,0),"N/A")</f>
-        <v>27</v>
+        <f t="shared" ref="F3:F52" si="6">IFERROR(_xlfn.RANK.EQ(E3,E$2:E$52,1),"N/A")</f>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>334800</v>
@@ -1347,16 +1347,16 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I3" s="10">
-        <f>H3-G3</f>
+        <f t="shared" si="2"/>
         <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="5">
-        <f>IFERROR((I3)/G3,"-")</f>
+        <f t="shared" si="3"/>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3">
-        <f>IFERROR(_xlfn.RANK.EQ(J3,J$2:J$52,0),"N/A")</f>
-        <v>35</v>
+        <f t="shared" ref="K3:K52" si="7">IFERROR(_xlfn.RANK.EQ(J3,J$2:J$52,1),"N/A")</f>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>322700</v>
@@ -1365,16 +1365,16 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N3" s="10">
-        <f>M3-L3</f>
+        <f t="shared" si="4"/>
         <v>-436.96000000002095</v>
       </c>
       <c r="O3" s="5">
-        <f>IFERROR((N3)/L3,"-")</f>
+        <f t="shared" si="5"/>
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3">
-        <f>IFERROR(_xlfn.RANK.EQ(O3,O$2:O$52,0),"N/A")</f>
-        <v>12</v>
+        <f t="shared" ref="P3:P52" si="8">IFERROR(_xlfn.RANK.EQ(O3,O$2:O$52,1),"N/A")</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1388,16 +1388,16 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D4" s="10">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
       <c r="E4" s="5">
-        <f>IFERROR((D4)/B4,"-")</f>
+        <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F4">
-        <f>IFERROR(_xlfn.RANK.EQ(E4,E$2:E$52,0),"N/A")</f>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3652300</v>
@@ -1406,16 +1406,16 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I4" s="10">
-        <f>H4-G4</f>
+        <f t="shared" si="2"/>
         <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="5">
-        <f>IFERROR((I4)/G4,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K4">
-        <f>IFERROR(_xlfn.RANK.EQ(J4,J$2:J$52,0),"N/A")</f>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>3662400</v>
@@ -1424,16 +1424,16 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N4" s="10">
-        <f>M4-L4</f>
+        <f t="shared" si="4"/>
         <v>-97416.950000009965</v>
       </c>
       <c r="O4" s="5">
-        <f>IFERROR((N4)/L4,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P4">
-        <f>IFERROR(_xlfn.RANK.EQ(O4,O$2:O$52,0),"N/A")</f>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1447,16 +1447,16 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D5" s="10">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
       <c r="E5" s="5">
-        <f>IFERROR((D5)/B5,"-")</f>
+        <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F5">
-        <f>IFERROR(_xlfn.RANK.EQ(E5,E$2:E$52,0),"N/A")</f>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>7968300</v>
@@ -1465,16 +1465,16 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I5" s="10">
-        <f>H5-G5</f>
+        <f t="shared" si="2"/>
         <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="5">
-        <f>IFERROR((I5)/G5,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.118932605449092</v>
       </c>
       <c r="K5">
-        <f>IFERROR(_xlfn.RANK.EQ(J5,J$2:J$52,0),"N/A")</f>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>7759600</v>
@@ -1483,16 +1483,16 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N5" s="10">
-        <f>M5-L5</f>
+        <f t="shared" si="4"/>
         <v>-262277.08999999985</v>
       </c>
       <c r="O5" s="5">
-        <f>IFERROR((N5)/L5,"-")</f>
+        <f t="shared" si="5"/>
         <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P5">
-        <f>IFERROR(_xlfn.RANK.EQ(O5,O$2:O$52,0),"N/A")</f>
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1506,16 +1506,16 @@
         <v>385908.52</v>
       </c>
       <c r="D6" s="10">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
       <c r="E6" s="5">
-        <f>IFERROR((D6)/B6,"-")</f>
+        <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F6">
-        <f>IFERROR(_xlfn.RANK.EQ(E6,E$2:E$52,0),"N/A")</f>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>428500</v>
@@ -1524,16 +1524,16 @@
         <v>427758.64</v>
       </c>
       <c r="I6" s="10">
-        <f>H6-G6</f>
+        <f t="shared" si="2"/>
         <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="5">
-        <f>IFERROR((I6)/G6,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K6">
-        <f>IFERROR(_xlfn.RANK.EQ(J6,J$2:J$52,0),"N/A")</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>445200</v>
@@ -1542,16 +1542,16 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N6" s="10">
-        <f>M6-L6</f>
+        <f t="shared" si="4"/>
         <v>-85.710000001010485</v>
       </c>
       <c r="O6" s="5">
-        <f>IFERROR((N6)/L6,"-")</f>
+        <f t="shared" si="5"/>
         <v>-1.925202156356929E-4</v>
       </c>
       <c r="P6">
-        <f>IFERROR(_xlfn.RANK.EQ(O6,O$2:O$52,0),"N/A")</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1565,16 +1565,16 @@
         <v>2946071.21</v>
       </c>
       <c r="D7" s="10">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
       <c r="E7" s="5">
-        <f>IFERROR((D7)/B7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
       <c r="F7">
-        <f>IFERROR(_xlfn.RANK.EQ(E7,E$2:E$52,0),"N/A")</f>
-        <v>47</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3390900</v>
@@ -1583,16 +1583,16 @@
         <v>3051483.41</v>
       </c>
       <c r="I7" s="10">
-        <f>H7-G7</f>
+        <f t="shared" si="2"/>
         <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="5">
-        <f>IFERROR((I7)/G7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K7">
-        <f>IFERROR(_xlfn.RANK.EQ(J7,J$2:J$52,0),"N/A")</f>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>3345200</v>
@@ -1601,16 +1601,16 @@
         <v>2946440.08</v>
       </c>
       <c r="N7" s="10">
-        <f>M7-L7</f>
+        <f t="shared" si="4"/>
         <v>-398759.91999999993</v>
       </c>
       <c r="O7" s="5">
-        <f>IFERROR((N7)/L7,"-")</f>
+        <f t="shared" si="5"/>
         <v>-0.11920361114432618</v>
       </c>
       <c r="P7">
-        <f>IFERROR(_xlfn.RANK.EQ(O7,O$2:O$52,0),"N/A")</f>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1624,16 +1624,16 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D8" s="10">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
       <c r="E8" s="5">
-        <f>IFERROR((D8)/B8,"-")</f>
+        <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
       <c r="F8">
-        <f>IFERROR(_xlfn.RANK.EQ(E8,E$2:E$52,0),"N/A")</f>
-        <v>48</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1590700</v>
@@ -1642,16 +1642,16 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I8" s="10">
-        <f>H8-G8</f>
+        <f t="shared" si="2"/>
         <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="5">
-        <f>IFERROR((I8)/G8,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K8">
-        <f>IFERROR(_xlfn.RANK.EQ(J8,J$2:J$52,0),"N/A")</f>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1579300</v>
@@ -1660,16 +1660,16 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N8" s="10">
-        <f>M8-L8</f>
+        <f t="shared" si="4"/>
         <v>-241564.68000000995</v>
       </c>
       <c r="O8" s="5">
-        <f>IFERROR((N8)/L8,"-")</f>
+        <f t="shared" si="5"/>
         <v>-0.15295680364719175</v>
       </c>
       <c r="P8">
-        <f>IFERROR(_xlfn.RANK.EQ(O8,O$2:O$52,0),"N/A")</f>
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1683,16 +1683,16 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D9" s="10">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
       <c r="E9" s="5">
-        <f>IFERROR((D9)/B9,"-")</f>
+        <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F9">
-        <f>IFERROR(_xlfn.RANK.EQ(E9,E$2:E$52,0),"N/A")</f>
-        <v>33</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>11073700</v>
@@ -1701,16 +1701,16 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I9" s="10">
-        <f>H9-G9</f>
+        <f t="shared" si="2"/>
         <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="5">
-        <f>IFERROR((I9)/G9,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K9">
-        <f>IFERROR(_xlfn.RANK.EQ(J9,J$2:J$52,0),"N/A")</f>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>10790500</v>
@@ -1719,16 +1719,16 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N9" s="10">
-        <f>M9-L9</f>
+        <f t="shared" si="4"/>
         <v>-796900.47000000998</v>
       </c>
       <c r="O9" s="5">
-        <f>IFERROR((N9)/L9,"-")</f>
+        <f t="shared" si="5"/>
         <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P9">
-        <f>IFERROR(_xlfn.RANK.EQ(O9,O$2:O$52,0),"N/A")</f>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1742,16 +1742,16 @@
         <v>407090.37</v>
       </c>
       <c r="D10" s="10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
       <c r="E10" s="5">
-        <f>IFERROR((D10)/B10,"-")</f>
+        <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F10">
-        <f>IFERROR(_xlfn.RANK.EQ(E10,E$2:E$52,0),"N/A")</f>
-        <v>43</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>495200</v>
@@ -1760,16 +1760,16 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I10" s="10">
-        <f>H10-G10</f>
+        <f t="shared" si="2"/>
         <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="5">
-        <f>IFERROR((I10)/G10,"-")</f>
+        <f t="shared" si="3"/>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K10">
-        <f>IFERROR(_xlfn.RANK.EQ(J10,J$2:J$52,0),"N/A")</f>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>487500</v>
@@ -1778,16 +1778,16 @@
         <v>478318.92</v>
       </c>
       <c r="N10" s="10">
-        <f>M10-L10</f>
+        <f t="shared" si="4"/>
         <v>-9181.0800000000163</v>
       </c>
       <c r="O10" s="5">
-        <f>IFERROR((N10)/L10,"-")</f>
+        <f t="shared" si="5"/>
         <v>-1.883298461538465E-2</v>
       </c>
       <c r="P10">
-        <f>IFERROR(_xlfn.RANK.EQ(O10,O$2:O$52,0),"N/A")</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1801,15 +1801,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>IFERROR((D11)/B11,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="F11" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(E11,E$2:E$52,0),"N/A")</f>
+        <f t="shared" si="6"/>
         <v>N/A</v>
       </c>
       <c r="G11">
@@ -1819,15 +1819,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f>H11-G11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f>IFERROR((I11)/G11,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="K11" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(J11,J$2:J$52,0),"N/A")</f>
+        <f t="shared" si="7"/>
         <v>N/A</v>
       </c>
       <c r="L11">
@@ -1837,16 +1837,16 @@
         <v>63771.91</v>
       </c>
       <c r="N11" s="10">
-        <f>M11-L11</f>
+        <f t="shared" si="4"/>
         <v>-311228.08999999997</v>
       </c>
       <c r="O11" s="5">
-        <f>IFERROR((N11)/L11,"-")</f>
+        <f t="shared" si="5"/>
         <v>-0.82994157333333329</v>
       </c>
       <c r="P11">
-        <f>IFERROR(_xlfn.RANK.EQ(O11,O$2:O$52,0),"N/A")</f>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1860,16 +1860,16 @@
         <v>4066595.33</v>
       </c>
       <c r="D12" s="10">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
       <c r="E12" s="5">
-        <f>IFERROR((D12)/B12,"-")</f>
+        <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F12">
-        <f>IFERROR(_xlfn.RANK.EQ(E12,E$2:E$52,0),"N/A")</f>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>4700400</v>
@@ -1878,16 +1878,16 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I12" s="10">
-        <f>H12-G12</f>
+        <f t="shared" si="2"/>
         <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="5">
-        <f>IFERROR((I12)/G12,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K12">
-        <f>IFERROR(_xlfn.RANK.EQ(J12,J$2:J$52,0),"N/A")</f>
-        <v>43</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>4677800</v>
@@ -1896,16 +1896,16 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N12" s="10">
-        <f>M12-L12</f>
+        <f t="shared" si="4"/>
         <v>-306086.86000000034</v>
       </c>
       <c r="O12" s="5">
-        <f>IFERROR((N12)/L12,"-")</f>
+        <f t="shared" si="5"/>
         <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P12">
-        <f>IFERROR(_xlfn.RANK.EQ(O12,O$2:O$52,0),"N/A")</f>
-        <v>39</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1919,16 +1919,16 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D13" s="10">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
       <c r="E13" s="5">
-        <f>IFERROR((D13)/B13,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F13">
-        <f>IFERROR(_xlfn.RANK.EQ(E13,E$2:E$52,0),"N/A")</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>6223700</v>
@@ -1937,16 +1937,16 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I13" s="10">
-        <f>H13-G13</f>
+        <f t="shared" si="2"/>
         <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="5">
-        <f>IFERROR((I13)/G13,"-")</f>
+        <f t="shared" si="3"/>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K13">
-        <f>IFERROR(_xlfn.RANK.EQ(J13,J$2:J$52,0),"N/A")</f>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>6207300</v>
@@ -1955,16 +1955,16 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N13" s="10">
-        <f>M13-L13</f>
+        <f t="shared" si="4"/>
         <v>-150323.33000000007</v>
       </c>
       <c r="O13" s="5">
-        <f>IFERROR((N13)/L13,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P13">
-        <f>IFERROR(_xlfn.RANK.EQ(O13,O$2:O$52,0),"N/A")</f>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1978,16 +1978,16 @@
         <v>505017.37</v>
       </c>
       <c r="D14" s="10">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
       <c r="E14" s="5">
-        <f>IFERROR((D14)/B14,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F14">
-        <f>IFERROR(_xlfn.RANK.EQ(E14,E$2:E$52,0),"N/A")</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>530500</v>
@@ -1996,16 +1996,16 @@
         <v>524402.98</v>
       </c>
       <c r="I14" s="10">
-        <f>H14-G14</f>
+        <f t="shared" si="2"/>
         <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="5">
-        <f>IFERROR((I14)/G14,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K14">
-        <f>IFERROR(_xlfn.RANK.EQ(J14,J$2:J$52,0),"N/A")</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>526200</v>
@@ -2014,16 +2014,16 @@
         <v>504989.88</v>
       </c>
       <c r="N14" s="10">
-        <f>M14-L14</f>
+        <f t="shared" si="4"/>
         <v>-21210.119999999995</v>
       </c>
       <c r="O14" s="5">
-        <f>IFERROR((N14)/L14,"-")</f>
+        <f t="shared" si="5"/>
         <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P14">
-        <f>IFERROR(_xlfn.RANK.EQ(O14,O$2:O$52,0),"N/A")</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2037,16 +2037,16 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D15" s="10">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
       <c r="E15" s="5">
-        <f>IFERROR((D15)/B15,"-")</f>
+        <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
       <c r="F15">
-        <f>IFERROR(_xlfn.RANK.EQ(E15,E$2:E$52,0),"N/A")</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -2055,16 +2055,16 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I15" s="10">
-        <f>H15-G15</f>
+        <f t="shared" si="2"/>
         <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="5">
-        <f>IFERROR((I15)/G15,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K15">
-        <f>IFERROR(_xlfn.RANK.EQ(J15,J$2:J$52,0),"N/A")</f>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="L15">
         <v>188953500</v>
@@ -2073,16 +2073,16 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N15" s="10">
-        <f>M15-L15</f>
+        <f t="shared" si="4"/>
         <v>-4502589.1500009894</v>
       </c>
       <c r="O15" s="5">
-        <f>IFERROR((N15)/L15,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P15">
-        <f>IFERROR(_xlfn.RANK.EQ(O15,O$2:O$52,0),"N/A")</f>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2096,16 +2096,16 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D16" s="10">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
       <c r="E16" s="5">
-        <f>IFERROR((D16)/B16,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F16">
-        <f>IFERROR(_xlfn.RANK.EQ(E16,E$2:E$52,0),"N/A")</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>7352500</v>
@@ -2114,16 +2114,16 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I16" s="10">
-        <f>H16-G16</f>
+        <f t="shared" si="2"/>
         <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="5">
-        <f>IFERROR((I16)/G16,"-")</f>
+        <f t="shared" si="3"/>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K16">
-        <f>IFERROR(_xlfn.RANK.EQ(J16,J$2:J$52,0),"N/A")</f>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>7397200</v>
@@ -2132,16 +2132,16 @@
         <v>7397093</v>
       </c>
       <c r="N16" s="10">
-        <f>M16-L16</f>
+        <f t="shared" si="4"/>
         <v>-107</v>
       </c>
       <c r="O16" s="5">
-        <f>IFERROR((N16)/L16,"-")</f>
+        <f t="shared" si="5"/>
         <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P16">
-        <f>IFERROR(_xlfn.RANK.EQ(O16,O$2:O$52,0),"N/A")</f>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2155,16 +2155,16 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D17" s="10">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
       <c r="E17" s="5">
-        <f>IFERROR((D17)/B17,"-")</f>
+        <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F17">
-        <f>IFERROR(_xlfn.RANK.EQ(E17,E$2:E$52,0),"N/A")</f>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>15309700</v>
@@ -2173,16 +2173,16 @@
         <v>14645233.51</v>
       </c>
       <c r="I17" s="10">
-        <f>H17-G17</f>
+        <f t="shared" si="2"/>
         <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="5">
-        <f>IFERROR((I17)/G17,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K17">
-        <f>IFERROR(_xlfn.RANK.EQ(J17,J$2:J$52,0),"N/A")</f>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="L17">
         <v>15311800</v>
@@ -2191,16 +2191,16 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N17" s="10">
-        <f>M17-L17</f>
+        <f t="shared" si="4"/>
         <v>-965742.96000000089</v>
       </c>
       <c r="O17" s="5">
-        <f>IFERROR((N17)/L17,"-")</f>
+        <f t="shared" si="5"/>
         <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P17">
-        <f>IFERROR(_xlfn.RANK.EQ(O17,O$2:O$52,0),"N/A")</f>
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2214,16 +2214,16 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D18" s="10">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="E18" s="5">
-        <f>IFERROR((D18)/B18,"-")</f>
+        <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F18">
-        <f>IFERROR(_xlfn.RANK.EQ(E18,E$2:E$52,0),"N/A")</f>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2861000</v>
@@ -2232,16 +2232,16 @@
         <v>2671745.94</v>
       </c>
       <c r="I18" s="10">
-        <f>H18-G18</f>
+        <f t="shared" si="2"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="5">
-        <f>IFERROR((I18)/G18,"-")</f>
+        <f t="shared" si="3"/>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K18">
-        <f>IFERROR(_xlfn.RANK.EQ(J18,J$2:J$52,0),"N/A")</f>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>2910600</v>
@@ -2250,16 +2250,16 @@
         <v>2535637.09</v>
       </c>
       <c r="N18" s="10">
-        <f>M18-L18</f>
+        <f t="shared" si="4"/>
         <v>-374962.91000000015</v>
       </c>
       <c r="O18" s="5">
-        <f>IFERROR((N18)/L18,"-")</f>
+        <f t="shared" si="5"/>
         <v>-0.12882667147667154</v>
       </c>
       <c r="P18">
-        <f>IFERROR(_xlfn.RANK.EQ(O18,O$2:O$52,0),"N/A")</f>
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2273,16 +2273,16 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D19" s="10">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
       <c r="E19" s="5">
-        <f>IFERROR((D19)/B19,"-")</f>
+        <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
       <c r="F19">
-        <f>IFERROR(_xlfn.RANK.EQ(E19,E$2:E$52,0),"N/A")</f>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>9713300</v>
@@ -2291,16 +2291,16 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I19" s="10">
-        <f>H19-G19</f>
+        <f t="shared" si="2"/>
         <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="5">
-        <f>IFERROR((I19)/G19,"-")</f>
+        <f t="shared" si="3"/>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K19">
-        <f>IFERROR(_xlfn.RANK.EQ(J19,J$2:J$52,0),"N/A")</f>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="L19">
         <v>9343000</v>
@@ -2309,16 +2309,16 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N19" s="10">
-        <f>M19-L19</f>
+        <f t="shared" si="4"/>
         <v>-576344.08999999985</v>
       </c>
       <c r="O19" s="5">
-        <f>IFERROR((N19)/L19,"-")</f>
+        <f t="shared" si="5"/>
         <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P19">
-        <f>IFERROR(_xlfn.RANK.EQ(O19,O$2:O$52,0),"N/A")</f>
-        <v>37</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2332,16 +2332,16 @@
         <v>124384360.159999</v>
       </c>
       <c r="D20" s="10">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
       <c r="E20" s="5">
-        <f>IFERROR((D20)/B20,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F20">
-        <f>IFERROR(_xlfn.RANK.EQ(E20,E$2:E$52,0),"N/A")</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>131849400</v>
@@ -2350,16 +2350,16 @@
         <v>131839624.37</v>
       </c>
       <c r="I20" s="10">
-        <f>H20-G20</f>
+        <f t="shared" si="2"/>
         <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="5">
-        <f>IFERROR((I20)/G20,"-")</f>
+        <f t="shared" si="3"/>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K20">
-        <f>IFERROR(_xlfn.RANK.EQ(J20,J$2:J$52,0),"N/A")</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>130621400</v>
@@ -2368,16 +2368,16 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N20" s="10">
-        <f>M20-L20</f>
+        <f t="shared" si="4"/>
         <v>-116.46000100672245</v>
       </c>
       <c r="O20" s="5">
-        <f>IFERROR((N20)/L20,"-")</f>
+        <f t="shared" si="5"/>
         <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P20">
-        <f>IFERROR(_xlfn.RANK.EQ(O20,O$2:O$52,0),"N/A")</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2391,16 +2391,16 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D21" s="10">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
       <c r="E21" s="5">
-        <f>IFERROR((D21)/B21,"-")</f>
+        <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F21">
-        <f>IFERROR(_xlfn.RANK.EQ(E21,E$2:E$52,0),"N/A")</f>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>24497400</v>
@@ -2409,16 +2409,16 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I21" s="10">
-        <f>H21-G21</f>
+        <f t="shared" si="2"/>
         <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="5">
-        <f>IFERROR((I21)/G21,"-")</f>
+        <f t="shared" si="3"/>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K21">
-        <f>IFERROR(_xlfn.RANK.EQ(J21,J$2:J$52,0),"N/A")</f>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="L21">
         <v>24323000</v>
@@ -2427,16 +2427,16 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N21" s="10">
-        <f>M21-L21</f>
+        <f t="shared" si="4"/>
         <v>-888926.91000010073</v>
       </c>
       <c r="O21" s="5">
-        <f>IFERROR((N21)/L21,"-")</f>
+        <f t="shared" si="5"/>
         <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P21">
-        <f>IFERROR(_xlfn.RANK.EQ(O21,O$2:O$52,0),"N/A")</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2450,16 +2450,16 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D22" s="10">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
       <c r="E22" s="5">
-        <f>IFERROR((D22)/B22,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F22">
-        <f>IFERROR(_xlfn.RANK.EQ(E22,E$2:E$52,0),"N/A")</f>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>11980700</v>
@@ -2468,16 +2468,16 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I22" s="10">
-        <f>H22-G22</f>
+        <f t="shared" si="2"/>
         <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="5">
-        <f>IFERROR((I22)/G22,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K22">
-        <f>IFERROR(_xlfn.RANK.EQ(J22,J$2:J$52,0),"N/A")</f>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>11935200</v>
@@ -2486,16 +2486,16 @@
         <v>11934454.77</v>
       </c>
       <c r="N22" s="10">
-        <f>M22-L22</f>
+        <f t="shared" si="4"/>
         <v>-745.23000000044703</v>
       </c>
       <c r="O22" s="5">
-        <f>IFERROR((N22)/L22,"-")</f>
+        <f t="shared" si="5"/>
         <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P22">
-        <f>IFERROR(_xlfn.RANK.EQ(O22,O$2:O$52,0),"N/A")</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2509,16 +2509,16 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D23" s="10">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
       <c r="E23" s="5">
-        <f>IFERROR((D23)/B23,"-")</f>
+        <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F23">
-        <f>IFERROR(_xlfn.RANK.EQ(E23,E$2:E$52,0),"N/A")</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>22683800</v>
@@ -2527,16 +2527,16 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I23" s="10">
-        <f>H23-G23</f>
+        <f t="shared" si="2"/>
         <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="5">
-        <f>IFERROR((I23)/G23,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K23">
-        <f>IFERROR(_xlfn.RANK.EQ(J23,J$2:J$52,0),"N/A")</f>
-        <v>23</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="L23">
         <v>23220300</v>
@@ -2545,16 +2545,16 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N23" s="10">
-        <f>M23-L23</f>
+        <f t="shared" si="4"/>
         <v>-601242.55999999866</v>
       </c>
       <c r="O23" s="5">
-        <f>IFERROR((N23)/L23,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P23">
-        <f>IFERROR(_xlfn.RANK.EQ(O23,O$2:O$52,0),"N/A")</f>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2568,16 +2568,16 @@
         <v>904969.19</v>
       </c>
       <c r="D24" s="10">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="E24" s="5">
-        <f>IFERROR((D24)/B24,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F24">
-        <f>IFERROR(_xlfn.RANK.EQ(E24,E$2:E$52,0),"N/A")</f>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1112700</v>
@@ -2586,16 +2586,16 @@
         <v>1067214.42</v>
       </c>
       <c r="I24" s="10">
-        <f>H24-G24</f>
+        <f t="shared" si="2"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="5">
-        <f>IFERROR((I24)/G24,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K24">
-        <f>IFERROR(_xlfn.RANK.EQ(J24,J$2:J$52,0),"N/A")</f>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="L24">
         <v>1112600</v>
@@ -2604,16 +2604,16 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N24" s="10">
-        <f>M24-L24</f>
+        <f t="shared" si="4"/>
         <v>-72.879999999888241</v>
       </c>
       <c r="O24" s="5">
-        <f>IFERROR((N24)/L24,"-")</f>
+        <f t="shared" si="5"/>
         <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P24">
-        <f>IFERROR(_xlfn.RANK.EQ(O24,O$2:O$52,0),"N/A")</f>
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2627,16 +2627,16 @@
         <v>479149.53</v>
       </c>
       <c r="D25" s="10">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="E25" s="5">
-        <f>IFERROR((D25)/B25,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F25">
-        <f>IFERROR(_xlfn.RANK.EQ(E25,E$2:E$52,0),"N/A")</f>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>505200</v>
@@ -2645,16 +2645,16 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I25" s="10">
-        <f>H25-G25</f>
+        <f t="shared" si="2"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="5">
-        <f>IFERROR((I25)/G25,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K25">
-        <f>IFERROR(_xlfn.RANK.EQ(J25,J$2:J$52,0),"N/A")</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>37</v>
       </c>
       <c r="L25">
         <v>496500</v>
@@ -2663,16 +2663,16 @@
         <v>494775.1</v>
       </c>
       <c r="N25" s="10">
-        <f>M25-L25</f>
+        <f t="shared" si="4"/>
         <v>-1724.9000000000233</v>
       </c>
       <c r="O25" s="5">
-        <f>IFERROR((N25)/L25,"-")</f>
+        <f t="shared" si="5"/>
         <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P25">
-        <f>IFERROR(_xlfn.RANK.EQ(O25,O$2:O$52,0),"N/A")</f>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2686,16 +2686,16 @@
         <v>4801960.08</v>
       </c>
       <c r="D26" s="10">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
       <c r="E26" s="5">
-        <f>IFERROR((D26)/B26,"-")</f>
+        <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F26">
-        <f>IFERROR(_xlfn.RANK.EQ(E26,E$2:E$52,0),"N/A")</f>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5442200</v>
@@ -2704,16 +2704,16 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I26" s="10">
-        <f>H26-G26</f>
+        <f t="shared" si="2"/>
         <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="5">
-        <f>IFERROR((I26)/G26,"-")</f>
+        <f t="shared" si="3"/>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K26">
-        <f>IFERROR(_xlfn.RANK.EQ(J26,J$2:J$52,0),"N/A")</f>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="L26">
         <v>5430700</v>
@@ -2722,16 +2722,16 @@
         <v>5117235.21</v>
       </c>
       <c r="N26" s="10">
-        <f>M26-L26</f>
+        <f t="shared" si="4"/>
         <v>-313464.79000000004</v>
       </c>
       <c r="O26" s="5">
-        <f>IFERROR((N26)/L26,"-")</f>
+        <f t="shared" si="5"/>
         <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P26">
-        <f>IFERROR(_xlfn.RANK.EQ(O26,O$2:O$52,0),"N/A")</f>
-        <v>36</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2745,15 +2745,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="5" t="str">
-        <f>IFERROR((D27)/B27,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="F27" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(E27,E$2:E$52,0),"N/A")</f>
+        <f t="shared" si="6"/>
         <v>N/A</v>
       </c>
       <c r="G27">
@@ -2763,15 +2763,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f>H27-G27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f>IFERROR((I27)/G27,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="K27" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(J27,J$2:J$52,0),"N/A")</f>
+        <f t="shared" si="7"/>
         <v>N/A</v>
       </c>
       <c r="L27">
@@ -2781,15 +2781,15 @@
         <v>0</v>
       </c>
       <c r="N27" s="10">
-        <f>M27-L27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" s="5" t="str">
-        <f>IFERROR((N27)/L27,"-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="P27" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(O27,O$2:O$52,0),"N/A")</f>
+        <f t="shared" si="8"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2804,16 +2804,16 @@
         <v>1250442.02</v>
       </c>
       <c r="D28" s="10">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
       <c r="E28" s="5">
-        <f>IFERROR((D28)/B28,"-")</f>
+        <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F28">
-        <f>IFERROR(_xlfn.RANK.EQ(E28,E$2:E$52,0),"N/A")</f>
-        <v>46</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1545700</v>
@@ -2822,16 +2822,16 @@
         <v>1281335.23</v>
       </c>
       <c r="I28" s="10">
-        <f>H28-G28</f>
+        <f t="shared" si="2"/>
         <v>-264364.77</v>
       </c>
       <c r="J28" s="5">
-        <f>IFERROR((I28)/G28,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K28">
-        <f>IFERROR(_xlfn.RANK.EQ(J28,J$2:J$52,0),"N/A")</f>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>1525900</v>
@@ -2840,16 +2840,16 @@
         <v>1393285.06</v>
       </c>
       <c r="N28" s="10">
-        <f>M28-L28</f>
+        <f t="shared" si="4"/>
         <v>-132614.93999999994</v>
       </c>
       <c r="O28" s="5">
-        <f>IFERROR((N28)/L28,"-")</f>
+        <f t="shared" si="5"/>
         <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P28">
-        <f>IFERROR(_xlfn.RANK.EQ(O28,O$2:O$52,0),"N/A")</f>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2863,16 +2863,16 @@
         <v>2523884.71</v>
       </c>
       <c r="D29" s="10">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
       <c r="E29" s="5">
-        <f>IFERROR((D29)/B29,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F29">
-        <f>IFERROR(_xlfn.RANK.EQ(E29,E$2:E$52,0),"N/A")</f>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2779500</v>
@@ -2881,16 +2881,16 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I29" s="10">
-        <f>H29-G29</f>
+        <f t="shared" si="2"/>
         <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="5">
-        <f>IFERROR((I29)/G29,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K29">
-        <f>IFERROR(_xlfn.RANK.EQ(J29,J$2:J$52,0),"N/A")</f>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>2889900</v>
@@ -2899,16 +2899,16 @@
         <v>2889864.67</v>
       </c>
       <c r="N29" s="10">
-        <f>M29-L29</f>
+        <f t="shared" si="4"/>
         <v>-35.330000000074506</v>
       </c>
       <c r="O29" s="5">
-        <f>IFERROR((N29)/L29,"-")</f>
+        <f t="shared" si="5"/>
         <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P29">
-        <f>IFERROR(_xlfn.RANK.EQ(O29,O$2:O$52,0),"N/A")</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2922,16 +2922,16 @@
         <v>12030494.1</v>
       </c>
       <c r="D30" s="10">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
       <c r="E30" s="5">
-        <f>IFERROR((D30)/B30,"-")</f>
+        <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F30">
-        <f>IFERROR(_xlfn.RANK.EQ(E30,E$2:E$52,0),"N/A")</f>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>12735900</v>
@@ -2940,16 +2940,16 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I30" s="10">
-        <f>H30-G30</f>
+        <f t="shared" si="2"/>
         <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="5">
-        <f>IFERROR((I30)/G30,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K30">
-        <f>IFERROR(_xlfn.RANK.EQ(J30,J$2:J$52,0),"N/A")</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>12861300</v>
@@ -2958,16 +2958,16 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N30" s="10">
-        <f>M30-L30</f>
+        <f t="shared" si="4"/>
         <v>-35290.390000000596</v>
       </c>
       <c r="O30" s="5">
-        <f>IFERROR((N30)/L30,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P30">
-        <f>IFERROR(_xlfn.RANK.EQ(O30,O$2:O$52,0),"N/A")</f>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2981,16 +2981,16 @@
         <v>1740827.69</v>
       </c>
       <c r="D31" s="10">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
       <c r="E31" s="5">
-        <f>IFERROR((D31)/B31,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F31">
-        <f>IFERROR(_xlfn.RANK.EQ(E31,E$2:E$52,0),"N/A")</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1823300</v>
@@ -2999,16 +2999,16 @@
         <v>1762676.85</v>
       </c>
       <c r="I31" s="10">
-        <f>H31-G31</f>
+        <f t="shared" si="2"/>
         <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="5">
-        <f>IFERROR((I31)/G31,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K31">
-        <f>IFERROR(_xlfn.RANK.EQ(J31,J$2:J$52,0),"N/A")</f>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
       <c r="L31">
         <v>1870700</v>
@@ -3017,16 +3017,16 @@
         <v>1801391.34</v>
       </c>
       <c r="N31" s="10">
-        <f>M31-L31</f>
+        <f t="shared" si="4"/>
         <v>-69308.659999999916</v>
       </c>
       <c r="O31" s="5">
-        <f>IFERROR((N31)/L31,"-")</f>
+        <f t="shared" si="5"/>
         <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P31">
-        <f>IFERROR(_xlfn.RANK.EQ(O31,O$2:O$52,0),"N/A")</f>
-        <v>29</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -3040,16 +3040,16 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D32" s="10">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
       <c r="E32" s="5">
-        <f>IFERROR((D32)/B32,"-")</f>
+        <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F32">
-        <f>IFERROR(_xlfn.RANK.EQ(E32,E$2:E$52,0),"N/A")</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>6195500</v>
@@ -3058,16 +3058,16 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I32" s="10">
-        <f>H32-G32</f>
+        <f t="shared" si="2"/>
         <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="5">
-        <f>IFERROR((I32)/G32,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K32">
-        <f>IFERROR(_xlfn.RANK.EQ(J32,J$2:J$52,0),"N/A")</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>6157400</v>
@@ -3076,16 +3076,16 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N32" s="10">
-        <f>M32-L32</f>
+        <f t="shared" si="4"/>
         <v>-169827.98000000045</v>
       </c>
       <c r="O32" s="5">
-        <f>IFERROR((N32)/L32,"-")</f>
+        <f t="shared" si="5"/>
         <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P32">
-        <f>IFERROR(_xlfn.RANK.EQ(O32,O$2:O$52,0),"N/A")</f>
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -3099,16 +3099,16 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D33" s="10">
-        <f>C33-B33</f>
+        <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
       <c r="E33" s="5">
-        <f>IFERROR((D33)/B33,"-")</f>
+        <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F33">
-        <f>IFERROR(_xlfn.RANK.EQ(E33,E$2:E$52,0),"N/A")</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>979671000</v>
@@ -3117,16 +3117,16 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I33" s="10">
-        <f>H33-G33</f>
+        <f t="shared" si="2"/>
         <v>-2602486.5199999809</v>
       </c>
       <c r="J33" s="5">
-        <f>IFERROR((I33)/G33,"-")</f>
+        <f t="shared" si="3"/>
         <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K33">
-        <f>IFERROR(_xlfn.RANK.EQ(J33,J$2:J$52,0),"N/A")</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="L33">
         <v>989572899.99999905</v>
@@ -3135,16 +3135,16 @@
         <v>984116289.40999901</v>
       </c>
       <c r="N33" s="10">
-        <f>M33-L33</f>
+        <f t="shared" si="4"/>
         <v>-5456610.5900000334</v>
       </c>
       <c r="O33" s="5">
-        <f>IFERROR((N33)/L33,"-")</f>
+        <f t="shared" si="5"/>
         <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P33">
-        <f>IFERROR(_xlfn.RANK.EQ(O33,O$2:O$52,0),"N/A")</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3158,16 +3158,16 @@
         <v>4109958.22</v>
       </c>
       <c r="D34" s="10">
-        <f>C34-B34</f>
+        <f t="shared" ref="D34:D65" si="9">C34-B34</f>
         <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="5">
-        <f>IFERROR((D34)/B34,"-")</f>
+        <f t="shared" ref="E34:E65" si="10">IFERROR((D34)/B34,"-")</f>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34">
-        <f>IFERROR(_xlfn.RANK.EQ(E34,E$2:E$52,0),"N/A")</f>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>4350600</v>
@@ -3176,16 +3176,16 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34" s="10">
-        <f>H34-G34</f>
+        <f t="shared" ref="I34:I65" si="11">H34-G34</f>
         <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="5">
-        <f>IFERROR((I34)/G34,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K34">
-        <f>IFERROR(_xlfn.RANK.EQ(J34,J$2:J$52,0),"N/A")</f>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="L34">
         <v>4345600</v>
@@ -3194,16 +3194,16 @@
         <v>4229801.51</v>
       </c>
       <c r="N34" s="10">
-        <f>M34-L34</f>
+        <f t="shared" ref="N34:N65" si="12">M34-L34</f>
         <v>-115798.49000000022</v>
       </c>
       <c r="O34" s="5">
-        <f>IFERROR((N34)/L34,"-")</f>
+        <f t="shared" ref="O34:O65" si="13">IFERROR((N34)/L34,"-")</f>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P34">
-        <f>IFERROR(_xlfn.RANK.EQ(O34,O$2:O$52,0),"N/A")</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3217,15 +3217,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="10">
-        <f>C35-B35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f>IFERROR((D35)/B35,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="F35" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(E35,E$2:E$52,0),"N/A")</f>
+        <f t="shared" si="6"/>
         <v>N/A</v>
       </c>
       <c r="G35">
@@ -3235,15 +3235,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f>H35-G35</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f>IFERROR((I35)/G35,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="K35" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(J35,J$2:J$52,0),"N/A")</f>
+        <f t="shared" si="7"/>
         <v>N/A</v>
       </c>
       <c r="L35">
@@ -3253,15 +3253,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="10">
-        <f>M35-L35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O35" s="5" t="str">
-        <f>IFERROR((N35)/L35,"-")</f>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="P35" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(O35,O$2:O$52,0),"N/A")</f>
+        <f t="shared" si="8"/>
         <v>N/A</v>
       </c>
     </row>
@@ -3276,16 +3276,16 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D36" s="10">
-        <f>C36-B36</f>
+        <f t="shared" si="9"/>
         <v>-62776.72000000102</v>
       </c>
       <c r="E36" s="5">
-        <f>IFERROR((D36)/B36,"-")</f>
+        <f t="shared" si="10"/>
         <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F36">
-        <f>IFERROR(_xlfn.RANK.EQ(E36,E$2:E$52,0),"N/A")</f>
-        <v>39</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>898700</v>
@@ -3294,16 +3294,16 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I36" s="10">
-        <f>H36-G36</f>
+        <f t="shared" si="11"/>
         <v>-157733.05000000098</v>
       </c>
       <c r="J36" s="5">
-        <f>IFERROR((I36)/G36,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.17551246244575608</v>
       </c>
       <c r="K36">
-        <f>IFERROR(_xlfn.RANK.EQ(J36,J$2:J$52,0),"N/A")</f>
-        <v>48</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>878300</v>
@@ -3312,16 +3312,16 @@
         <v>777215.28999999899</v>
       </c>
       <c r="N36" s="10">
-        <f>M36-L36</f>
+        <f t="shared" si="12"/>
         <v>-101084.71000000101</v>
       </c>
       <c r="O36" s="5">
-        <f>IFERROR((N36)/L36,"-")</f>
+        <f t="shared" si="13"/>
         <v>-0.11509132414892521</v>
       </c>
       <c r="P36">
-        <f>IFERROR(_xlfn.RANK.EQ(O36,O$2:O$52,0),"N/A")</f>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3335,16 +3335,16 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D37" s="10">
-        <f>C37-B37</f>
+        <f t="shared" si="9"/>
         <v>-82352.260000010021</v>
       </c>
       <c r="E37" s="5">
-        <f>IFERROR((D37)/B37,"-")</f>
+        <f t="shared" si="10"/>
         <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F37">
-        <f>IFERROR(_xlfn.RANK.EQ(E37,E$2:E$52,0),"N/A")</f>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>2229200</v>
@@ -3353,16 +3353,16 @@
         <v>2118943.21</v>
       </c>
       <c r="I37" s="10">
-        <f>H37-G37</f>
+        <f t="shared" si="11"/>
         <v>-110256.79000000004</v>
       </c>
       <c r="J37" s="5">
-        <f>IFERROR((I37)/G37,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K37">
-        <f>IFERROR(_xlfn.RANK.EQ(J37,J$2:J$52,0),"N/A")</f>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="L37">
         <v>2296900</v>
@@ -3371,16 +3371,16 @@
         <v>2108718.34</v>
       </c>
       <c r="N37" s="10">
-        <f>M37-L37</f>
+        <f t="shared" si="12"/>
         <v>-188181.66000000015</v>
       </c>
       <c r="O37" s="5">
-        <f>IFERROR((N37)/L37,"-")</f>
+        <f t="shared" si="13"/>
         <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P37">
-        <f>IFERROR(_xlfn.RANK.EQ(O37,O$2:O$52,0),"N/A")</f>
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3394,16 +3394,16 @@
         <v>838669.82</v>
       </c>
       <c r="D38" s="10">
-        <f>C38-B38</f>
+        <f t="shared" si="9"/>
         <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="5">
-        <f>IFERROR((D38)/B38,"-")</f>
+        <f t="shared" si="10"/>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F38">
-        <f>IFERROR(_xlfn.RANK.EQ(E38,E$2:E$52,0),"N/A")</f>
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="G38">
         <v>792800</v>
@@ -3412,16 +3412,16 @@
         <v>753451.96</v>
       </c>
       <c r="I38" s="10">
-        <f>H38-G38</f>
+        <f t="shared" si="11"/>
         <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="5">
-        <f>IFERROR((I38)/G38,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K38">
-        <f>IFERROR(_xlfn.RANK.EQ(J38,J$2:J$52,0),"N/A")</f>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="L38">
         <v>777800</v>
@@ -3430,16 +3430,16 @@
         <v>777663.26</v>
       </c>
       <c r="N38" s="10">
-        <f>M38-L38</f>
+        <f t="shared" si="12"/>
         <v>-136.73999999999069</v>
       </c>
       <c r="O38" s="5">
-        <f>IFERROR((N38)/L38,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P38">
-        <f>IFERROR(_xlfn.RANK.EQ(O38,O$2:O$52,0),"N/A")</f>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3453,16 +3453,16 @@
         <v>813108.87</v>
       </c>
       <c r="D39" s="10">
-        <f>C39-B39</f>
+        <f t="shared" si="9"/>
         <v>-70791.13</v>
       </c>
       <c r="E39" s="5">
-        <f>IFERROR((D39)/B39,"-")</f>
+        <f t="shared" si="10"/>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F39">
-        <f>IFERROR(_xlfn.RANK.EQ(E39,E$2:E$52,0),"N/A")</f>
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>1294400</v>
@@ -3471,16 +3471,16 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I39" s="10">
-        <f>H39-G39</f>
+        <f t="shared" si="11"/>
         <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="5">
-        <f>IFERROR((I39)/G39,"-")</f>
+        <f t="shared" si="3"/>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K39">
-        <f>IFERROR(_xlfn.RANK.EQ(J39,J$2:J$52,0),"N/A")</f>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>1759500</v>
@@ -3489,16 +3489,16 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N39" s="10">
-        <f>M39-L39</f>
+        <f t="shared" si="12"/>
         <v>-79036.1300000099</v>
       </c>
       <c r="O39" s="5">
-        <f>IFERROR((N39)/L39,"-")</f>
+        <f t="shared" si="13"/>
         <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P39">
-        <f>IFERROR(_xlfn.RANK.EQ(O39,O$2:O$52,0),"N/A")</f>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3512,16 +3512,16 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D40" s="10">
-        <f>C40-B40</f>
+        <f t="shared" si="9"/>
         <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="5">
-        <f>IFERROR((D40)/B40,"-")</f>
+        <f t="shared" si="10"/>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F40">
-        <f>IFERROR(_xlfn.RANK.EQ(E40,E$2:E$52,0),"N/A")</f>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="G40">
         <v>39964900</v>
@@ -3530,16 +3530,16 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I40" s="10">
-        <f>H40-G40</f>
+        <f t="shared" si="11"/>
         <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="5">
-        <f>IFERROR((I40)/G40,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K40">
-        <f>IFERROR(_xlfn.RANK.EQ(J40,J$2:J$52,0),"N/A")</f>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="L40">
         <v>40216700</v>
@@ -3548,16 +3548,16 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N40" s="10">
-        <f>M40-L40</f>
+        <f t="shared" si="12"/>
         <v>-610436.29000010341</v>
       </c>
       <c r="O40" s="5">
-        <f>IFERROR((N40)/L40,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P40">
-        <f>IFERROR(_xlfn.RANK.EQ(O40,O$2:O$52,0),"N/A")</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3571,16 +3571,16 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D41" s="10">
-        <f>C41-B41</f>
+        <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="5">
-        <f>IFERROR((D41)/B41,"-")</f>
+        <f t="shared" si="10"/>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F41">
-        <f>IFERROR(_xlfn.RANK.EQ(E41,E$2:E$52,0),"N/A")</f>
-        <v>32</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>5089500</v>
@@ -3589,16 +3589,16 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I41" s="10">
-        <f>H41-G41</f>
+        <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="5">
-        <f>IFERROR((I41)/G41,"-")</f>
+        <f t="shared" si="3"/>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K41">
-        <f>IFERROR(_xlfn.RANK.EQ(J41,J$2:J$52,0),"N/A")</f>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>34</v>
       </c>
       <c r="L41">
         <v>4799900</v>
@@ -3607,16 +3607,16 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N41" s="10">
-        <f>M41-L41</f>
+        <f t="shared" si="12"/>
         <v>-82077.349999999627</v>
       </c>
       <c r="O41" s="5">
-        <f>IFERROR((N41)/L41,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P41">
-        <f>IFERROR(_xlfn.RANK.EQ(O41,O$2:O$52,0),"N/A")</f>
-        <v>19</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3630,16 +3630,16 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D42" s="10">
-        <f>C42-B42</f>
+        <f t="shared" si="9"/>
         <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="5">
-        <f>IFERROR((D42)/B42,"-")</f>
+        <f t="shared" si="10"/>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F42">
-        <f>IFERROR(_xlfn.RANK.EQ(E42,E$2:E$52,0),"N/A")</f>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>199130300</v>
@@ -3648,16 +3648,16 @@
         <v>196755033.31</v>
       </c>
       <c r="I42" s="10">
-        <f>H42-G42</f>
+        <f t="shared" si="11"/>
         <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="5">
-        <f>IFERROR((I42)/G42,"-")</f>
+        <f t="shared" si="3"/>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K42">
-        <f>IFERROR(_xlfn.RANK.EQ(J42,J$2:J$52,0),"N/A")</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>199954600</v>
@@ -3666,16 +3666,16 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N42" s="10">
-        <f>M42-L42</f>
+        <f t="shared" si="12"/>
         <v>-36.250001013278961</v>
       </c>
       <c r="O42" s="5">
-        <f>IFERROR((N42)/L42,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P42">
-        <f>IFERROR(_xlfn.RANK.EQ(O42,O$2:O$52,0),"N/A")</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3689,16 +3689,16 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D43" s="10">
-        <f>C43-B43</f>
+        <f t="shared" si="9"/>
         <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="5">
-        <f>IFERROR((D43)/B43,"-")</f>
+        <f t="shared" si="10"/>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F43">
-        <f>IFERROR(_xlfn.RANK.EQ(E43,E$2:E$52,0),"N/A")</f>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="G43">
         <v>8560800</v>
@@ -3707,16 +3707,16 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I43" s="10">
-        <f>H43-G43</f>
+        <f t="shared" si="11"/>
         <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="5">
-        <f>IFERROR((I43)/G43,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K43">
-        <f>IFERROR(_xlfn.RANK.EQ(J43,J$2:J$52,0),"N/A")</f>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>8497500</v>
@@ -3725,16 +3725,16 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N43" s="10">
-        <f>M43-L43</f>
+        <f t="shared" si="12"/>
         <v>-346517.43000000995</v>
       </c>
       <c r="O43" s="5">
-        <f>IFERROR((N43)/L43,"-")</f>
+        <f t="shared" si="13"/>
         <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P43">
-        <f>IFERROR(_xlfn.RANK.EQ(O43,O$2:O$52,0),"N/A")</f>
-        <v>31</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3748,16 +3748,16 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D44" s="10">
-        <f>C44-B44</f>
+        <f t="shared" si="9"/>
         <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="5">
-        <f>IFERROR((D44)/B44,"-")</f>
+        <f t="shared" si="10"/>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F44">
-        <f>IFERROR(_xlfn.RANK.EQ(E44,E$2:E$52,0),"N/A")</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>31040700</v>
@@ -3766,16 +3766,16 @@
         <v>30793711.48</v>
       </c>
       <c r="I44" s="10">
-        <f>H44-G44</f>
+        <f t="shared" si="11"/>
         <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="5">
-        <f>IFERROR((I44)/G44,"-")</f>
+        <f t="shared" si="3"/>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K44">
-        <f>IFERROR(_xlfn.RANK.EQ(J44,J$2:J$52,0),"N/A")</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>31282200</v>
@@ -3784,16 +3784,16 @@
         <v>31282141.25</v>
       </c>
       <c r="N44" s="10">
-        <f>M44-L44</f>
+        <f t="shared" si="12"/>
         <v>-58.75</v>
       </c>
       <c r="O44" s="5">
-        <f>IFERROR((N44)/L44,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P44">
-        <f>IFERROR(_xlfn.RANK.EQ(O44,O$2:O$52,0),"N/A")</f>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3807,16 +3807,16 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D45" s="10">
-        <f>C45-B45</f>
+        <f t="shared" si="9"/>
         <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="5">
-        <f>IFERROR((D45)/B45,"-")</f>
+        <f t="shared" si="10"/>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F45">
-        <f>IFERROR(_xlfn.RANK.EQ(E45,E$2:E$52,0),"N/A")</f>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>56792200</v>
@@ -3825,16 +3825,16 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I45" s="10">
-        <f>H45-G45</f>
+        <f t="shared" si="11"/>
         <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="5">
-        <f>IFERROR((I45)/G45,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K45">
-        <f>IFERROR(_xlfn.RANK.EQ(J45,J$2:J$52,0),"N/A")</f>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>56027100</v>
@@ -3843,16 +3843,16 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N45" s="10">
-        <f>M45-L45</f>
+        <f t="shared" si="12"/>
         <v>-640550.34000010043</v>
       </c>
       <c r="O45" s="5">
-        <f>IFERROR((N45)/L45,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P45">
-        <f>IFERROR(_xlfn.RANK.EQ(O45,O$2:O$52,0),"N/A")</f>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3866,16 +3866,16 @@
         <v>258322.43</v>
       </c>
       <c r="D46" s="10">
-        <f>C46-B46</f>
+        <f t="shared" si="9"/>
         <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="5">
-        <f>IFERROR((D46)/B46,"-")</f>
+        <f t="shared" si="10"/>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F46">
-        <f>IFERROR(_xlfn.RANK.EQ(E46,E$2:E$52,0),"N/A")</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>266000</v>
@@ -3884,16 +3884,16 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I46" s="10">
-        <f>H46-G46</f>
+        <f t="shared" si="11"/>
         <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="5">
-        <f>IFERROR((I46)/G46,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K46">
-        <f>IFERROR(_xlfn.RANK.EQ(J46,J$2:J$52,0),"N/A")</f>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>267100</v>
@@ -3902,16 +3902,16 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N46" s="10">
-        <f>M46-L46</f>
+        <f t="shared" si="12"/>
         <v>-12346.840000000986</v>
       </c>
       <c r="O46" s="5">
-        <f>IFERROR((N46)/L46,"-")</f>
+        <f t="shared" si="13"/>
         <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P46">
-        <f>IFERROR(_xlfn.RANK.EQ(O46,O$2:O$52,0),"N/A")</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3925,16 +3925,16 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D47" s="10">
-        <f>C47-B47</f>
+        <f t="shared" si="9"/>
         <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="5">
-        <f>IFERROR((D47)/B47,"-")</f>
+        <f t="shared" si="10"/>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F47">
-        <f>IFERROR(_xlfn.RANK.EQ(E47,E$2:E$52,0),"N/A")</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>73467000</v>
@@ -3943,16 +3943,16 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I47" s="10">
-        <f>H47-G47</f>
+        <f t="shared" si="11"/>
         <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="5">
-        <f>IFERROR((I47)/G47,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K47">
-        <f>IFERROR(_xlfn.RANK.EQ(J47,J$2:J$52,0),"N/A")</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="L47">
         <v>75072800</v>
@@ -3961,16 +3961,16 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N47" s="10">
-        <f>M47-L47</f>
+        <f t="shared" si="12"/>
         <v>-21970.820000097156</v>
       </c>
       <c r="O47" s="5">
-        <f>IFERROR((N47)/L47,"-")</f>
+        <f t="shared" si="13"/>
         <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P47">
-        <f>IFERROR(_xlfn.RANK.EQ(O47,O$2:O$52,0),"N/A")</f>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3984,16 +3984,16 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D48" s="10">
-        <f>C48-B48</f>
+        <f t="shared" si="9"/>
         <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="5">
-        <f>IFERROR((D48)/B48,"-")</f>
+        <f t="shared" si="10"/>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F48">
-        <f>IFERROR(_xlfn.RANK.EQ(E48,E$2:E$52,0),"N/A")</f>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="G48">
         <v>7214700</v>
@@ -4002,16 +4002,16 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I48" s="10">
-        <f>H48-G48</f>
+        <f t="shared" si="11"/>
         <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="5">
-        <f>IFERROR((I48)/G48,"-")</f>
+        <f t="shared" si="3"/>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K48">
-        <f>IFERROR(_xlfn.RANK.EQ(J48,J$2:J$52,0),"N/A")</f>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>7289800</v>
@@ -4020,16 +4020,16 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N48" s="10">
-        <f>M48-L48</f>
+        <f t="shared" si="12"/>
         <v>-407449.76000001002</v>
       </c>
       <c r="O48" s="5">
-        <f>IFERROR((N48)/L48,"-")</f>
+        <f t="shared" si="13"/>
         <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P48">
-        <f>IFERROR(_xlfn.RANK.EQ(O48,O$2:O$52,0),"N/A")</f>
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -4043,16 +4043,16 @@
         <v>90499.43</v>
       </c>
       <c r="D49" s="10">
-        <f>C49-B49</f>
+        <f t="shared" si="9"/>
         <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="5">
-        <f>IFERROR((D49)/B49,"-")</f>
+        <f t="shared" si="10"/>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F49">
-        <f>IFERROR(_xlfn.RANK.EQ(E49,E$2:E$52,0),"N/A")</f>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="G49">
         <v>102600</v>
@@ -4061,16 +4061,16 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I49" s="10">
-        <f>H49-G49</f>
+        <f t="shared" si="11"/>
         <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="5">
-        <f>IFERROR((I49)/G49,"-")</f>
+        <f t="shared" si="3"/>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K49">
-        <f>IFERROR(_xlfn.RANK.EQ(J49,J$2:J$52,0),"N/A")</f>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4079,15 +4079,15 @@
         <v>0</v>
       </c>
       <c r="N49" s="10">
-        <f>M49-L49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O49" s="5" t="str">
-        <f>IFERROR((N49)/L49,"-")</f>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="P49" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(O49,O$2:O$52,0),"N/A")</f>
+        <f t="shared" si="8"/>
         <v>N/A</v>
       </c>
     </row>
@@ -4102,16 +4102,16 @@
         <v>832600</v>
       </c>
       <c r="D50" s="10">
-        <f>C50-B50</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f>IFERROR((D50)/B50,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>IFERROR(_xlfn.RANK.EQ(E50,E$2:E$52,0),"N/A")</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="G50">
         <v>859100</v>
@@ -4120,16 +4120,16 @@
         <v>859100</v>
       </c>
       <c r="I50" s="10">
-        <f>H50-G50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>IFERROR((I50)/G50,"-")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>IFERROR(_xlfn.RANK.EQ(J50,J$2:J$52,0),"N/A")</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>48</v>
       </c>
       <c r="L50">
         <v>843200</v>
@@ -4138,16 +4138,16 @@
         <v>843200</v>
       </c>
       <c r="N50" s="10">
-        <f>M50-L50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f>IFERROR((N50)/L50,"-")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>IFERROR(_xlfn.RANK.EQ(O50,O$2:O$52,0),"N/A")</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -4161,16 +4161,16 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D51" s="10">
-        <f>C51-B51</f>
+        <f t="shared" si="9"/>
         <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="5">
-        <f>IFERROR((D51)/B51,"-")</f>
+        <f t="shared" si="10"/>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F51">
-        <f>IFERROR(_xlfn.RANK.EQ(E51,E$2:E$52,0),"N/A")</f>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>8925500</v>
@@ -4179,16 +4179,16 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I51" s="10">
-        <f>H51-G51</f>
+        <f t="shared" si="11"/>
         <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="5">
-        <f>IFERROR((I51)/G51,"-")</f>
+        <f t="shared" si="3"/>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K51">
-        <f>IFERROR(_xlfn.RANK.EQ(J51,J$2:J$52,0),"N/A")</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>8833900</v>
@@ -4197,16 +4197,16 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N51" s="10">
-        <f>M51-L51</f>
+        <f t="shared" si="12"/>
         <v>-98056.689999999478</v>
       </c>
       <c r="O51" s="5">
-        <f>IFERROR((N51)/L51,"-")</f>
+        <f t="shared" si="13"/>
         <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P51">
-        <f>IFERROR(_xlfn.RANK.EQ(O51,O$2:O$52,0),"N/A")</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -4220,16 +4220,16 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D52" s="10">
-        <f>C52-B52</f>
+        <f t="shared" si="9"/>
         <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="5">
-        <f>IFERROR((D52)/B52,"-")</f>
+        <f t="shared" si="10"/>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52">
-        <f>IFERROR(_xlfn.RANK.EQ(E52,E$2:E$52,0),"N/A")</f>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>2440700</v>
@@ -4238,16 +4238,16 @@
         <v>2204672.88</v>
       </c>
       <c r="I52" s="10">
-        <f>H52-G52</f>
+        <f t="shared" si="11"/>
         <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="5">
-        <f>IFERROR((I52)/G52,"-")</f>
+        <f t="shared" si="3"/>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52">
-        <f>IFERROR(_xlfn.RANK.EQ(J52,J$2:J$52,0),"N/A")</f>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="L52">
         <v>2321600</v>
@@ -4256,16 +4256,16 @@
         <v>2056835.26</v>
       </c>
       <c r="N52" s="10">
-        <f>M52-L52</f>
+        <f t="shared" si="12"/>
         <v>-264764.74</v>
       </c>
       <c r="O52" s="5">
-        <f>IFERROR((N52)/L52,"-")</f>
+        <f t="shared" si="13"/>
         <v>-0.11404408166781529</v>
       </c>
       <c r="P52">
-        <f>IFERROR(_xlfn.RANK.EQ(O52,O$2:O$52,0),"N/A")</f>
-        <v>43</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9A4D1-62A3-4E7C-802B-84B2C5AD6BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC78762-1EE6-42B4-8D21-27596187E1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28290" yWindow="285" windowWidth="28230" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,11 +3158,11 @@
         <v>4109958.22</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" ref="D34:D65" si="9">C34-B34</f>
+        <f t="shared" ref="D34:D52" si="9">C34-B34</f>
         <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:E65" si="10">IFERROR((D34)/B34,"-")</f>
+        <f t="shared" ref="E34:E52" si="10">IFERROR((D34)/B34,"-")</f>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34">
@@ -3176,7 +3176,7 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" ref="I34:I65" si="11">H34-G34</f>
+        <f t="shared" ref="I34:I52" si="11">H34-G34</f>
         <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="5">
@@ -3194,11 +3194,11 @@
         <v>4229801.51</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" ref="N34:N65" si="12">M34-L34</f>
+        <f t="shared" ref="N34:N52" si="12">M34-L34</f>
         <v>-115798.49000000022</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O65" si="13">IFERROR((N34)/L34,"-")</f>
+        <f t="shared" ref="O34:O52" si="13">IFERROR((N34)/L34,"-")</f>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P34">
@@ -4291,30 +4291,102 @@
       <c r="A56" t="s">
         <v>24</v>
       </c>
+      <c r="B56">
+        <f>VLOOKUP($A56,$A$1:E$52,5)</f>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP($A56,$A$1:I$52,9)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP($A56,$A$1:N$52,14)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
+      <c r="B57">
+        <f>VLOOKUP($A57,$A$1:E$52,4)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP($A57,$A$1:I$52,9)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP($A57,$A$1:N$52,14)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
+      <c r="B58">
+        <f>VLOOKUP($A58,$A$1:E$52,5)</f>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP($A58,$A$1:I$52,9)</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP($A58,$A$1:N$52,14)</f>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
+      <c r="B59">
+        <f>VLOOKUP($A59,$A$1:E$52,5)</f>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP($A59,$A$1:I$52,9)</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP($A59,$A$1:N$52,14)</f>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
+      <c r="B60">
+        <f>VLOOKUP($A60,$A$1:E$52,5)</f>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP($A60,$A$1:I$52,9)</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP($A60,$A$1:N$52,14)</f>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
+      </c>
+      <c r="B61">
+        <f>VLOOKUP($A61,$A$1:E$52,5)</f>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP($A61,$A$1:I$52,9)</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP($A61,$A$1:N$52,14)</f>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC78762-1EE6-42B4-8D21-27596187E1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D52454-A596-4A2B-9BD4-41BA130D2662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28290" yWindow="285" windowWidth="28230" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4292,8 +4292,8 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP($A56,$A$1:E$52,5)</f>
-        <v>-8.1681998646514792E-2</v>
+        <f>VLOOKUP($A56,$A$1:D$52,4)</f>
+        <v>-36209.630000000005</v>
       </c>
       <c r="C56">
         <f>VLOOKUP($A56,$A$1:I$52,9)</f>
@@ -4309,7 +4309,7 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f>VLOOKUP($A57,$A$1:E$52,4)</f>
+        <f>VLOOKUP($A57,$A$1:D$52,4)</f>
         <v>0</v>
       </c>
       <c r="C57">
@@ -4326,8 +4326,8 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f>VLOOKUP($A58,$A$1:E$52,5)</f>
-        <v>-5.4037002206391245E-2</v>
+        <f>VLOOKUP($A58,$A$1:D$52,4)</f>
+        <v>-149396.10000000987</v>
       </c>
       <c r="C58">
         <f>VLOOKUP($A58,$A$1:I$52,9)</f>
@@ -4343,8 +4343,8 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f>VLOOKUP($A59,$A$1:E$52,5)</f>
-        <v>-1.3334943305713101E-2</v>
+        <f>VLOOKUP($A59,$A$1:D$52,4)</f>
+        <v>-12230.810000000056</v>
       </c>
       <c r="C59">
         <f>VLOOKUP($A59,$A$1:I$52,9)</f>
@@ -4360,8 +4360,8 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f>VLOOKUP($A60,$A$1:E$52,5)</f>
-        <v>-1.0226130964676661E-2</v>
+        <f>VLOOKUP($A60,$A$1:D$52,4)</f>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="C60">
         <f>VLOOKUP($A60,$A$1:I$52,9)</f>
@@ -4377,8 +4377,8 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f>VLOOKUP($A61,$A$1:E$52,5)</f>
-        <v>-4.0110550149132493E-2</v>
+        <f>VLOOKUP($A61,$A$1:D$52,4)</f>
+        <v>-184239.79000001028</v>
       </c>
       <c r="C61">
         <f>VLOOKUP($A61,$A$1:I$52,9)</f>
@@ -4412,30 +4412,102 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="B65">
+        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$D$1:$D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$I$1:$I$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$N$1:$N$52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B70" si="14">_xlfn.XLOOKUP($A66,$A$1:$A$52,$D$1:$D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="15">_xlfn.XLOOKUP($A66,$A$1:$A$52,$I$1:$I$52)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D70" si="16">_xlfn.XLOOKUP($A66,$A$1:$A$52,$N$1:$N$52)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="B67">
+        <f t="shared" si="14"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="15"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="16"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="B68">
+        <f t="shared" si="14"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="15"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="16"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="B69">
+        <f t="shared" si="14"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="15"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="16"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="14"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="15"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="16"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D52454-A596-4A2B-9BD4-41BA130D2662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697342C-EAA0-4D0E-8F71-2DD50A111A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28290" yWindow="285" windowWidth="28230" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4533,30 +4533,102 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="B74">
+        <f>INDEX($D$1:$D$52,MATCH($A74,$A$1:$A$52,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX($I$1:$I$52,MATCH($A74,$A$1:$A$52,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74">
+        <f>INDEX($N$1:$N$52,MATCH($A74,$A$1:$A$52,0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B79" si="17">INDEX($D$1:$D$52,MATCH($A75,$A$1:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C79" si="18">INDEX($I$1:$I$52,MATCH($A75,$A$1:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D79" si="19">INDEX($N$1:$N$52,MATCH($A75,$A$1:$A$52,0))</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="B76">
+        <f t="shared" si="17"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="18"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="19"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="B77">
+        <f t="shared" si="17"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="18"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="19"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="B78">
+        <f t="shared" si="17"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="18"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="19"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="17"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="18"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="19"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697342C-EAA0-4D0E-8F71-2DD50A111A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4334C5CD-0A9D-4D14-8879-A02D47F2888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="285" windowWidth="28230" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25920" yWindow="0" windowWidth="25560" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,6 +911,1039 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Department Budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4280900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4700400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4677800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5796-41FD-A4CB-44D95BA49167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4066595.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4205555.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4371713.1399999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5796-41FD-A4CB-44D95BA49167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="249709999"/>
+        <c:axId val="131953407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="249709999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131953407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131953407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249709999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1579245</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FEFC70-FBDC-D21A-BD24-40B7940AE3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3DAA7C-2324-483C-A2B1-3DEC056D54A0}" name="Table1" displayName="Table1" ref="A1:P52" totalsRowShown="0">
+  <autoFilter ref="A1:P52" xr:uid="{3D3DAA7C-2324-483C-A2B1-3DEC056D54A0}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6151F346-BDB7-4872-981A-99B9FD3C2018}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{4F854E73-AB01-4382-86FB-331C309403A4}" name="FY17_Budget"/>
+    <tableColumn id="3" xr3:uid="{9245A4AF-901B-4643-AD65-407D31E1FEB2}" name="FY17_Actual"/>
+    <tableColumn id="4" xr3:uid="{0D711CD2-A71C-4FAC-8CED-445A681E63D4}" name="FY17_diff" dataDxfId="5">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{59A8BE8B-4F4A-4E53-804A-EC5152B58902}" name="FY17_diff_pct" dataDxfId="4">
+      <calculatedColumnFormula>IFERROR((D2)/B2,"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0C92D3F6-616C-4FD6-819F-EB47B05F4801}" name="FY17_rank">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,1),"N/A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{CFD88B42-D679-4362-A52B-D2CD2A47D9DB}" name="FY18_Budget"/>
+    <tableColumn id="8" xr3:uid="{E8BFA86C-9224-42D7-980C-1C985697B53E}" name="FY18_Actual"/>
+    <tableColumn id="9" xr3:uid="{4E2C8136-3A7D-43F0-880B-AD553A18BE33}" name="FY18_diff" dataDxfId="3">
+      <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B66D5D1F-A98F-4C8A-8671-F95B6DFBE3C5}" name="FY18_diff_pct" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR((I2)/G2,"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{9E2CA5C6-5C3F-49A5-8453-537C71889CF7}" name="FY18_rank">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"N/A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A989E0B0-42FD-48E7-B1B7-C1E8B54A72E5}" name="FY19_Budget"/>
+    <tableColumn id="13" xr3:uid="{8F6B28DF-6D4F-4B51-AC02-CFBA8EBD1DF2}" name="FY19_Actual"/>
+    <tableColumn id="14" xr3:uid="{4770734E-33BE-45D2-8059-AD929A0DE681}" name="FY19_diff" dataDxfId="1">
+      <calculatedColumnFormula>M2-L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{D0593219-90DE-440D-88CB-CB25920F01F7}" name="FY19_diff_pct" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR((N2)/L2,"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{D6F71B16-34F7-4F17-8069-003B8FBECDB4}" name="FY19_rank">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"N/A")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4638,7 +5693,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4653,22 +5708,40 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6">
+        <f>INDEX(B$2:B$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4280900</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX(C$2:C$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4066595.33</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="6">
+        <f>INDEX(G$2:G$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4700400</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX(H$2:H$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4205555.5999999996</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <f>INDEX(L$2:L$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4677800</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX(M$2:M$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>4371713.1399999997</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
@@ -4804,13 +5877,20 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B82" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82" xr:uid="{7F1BE9D9-A41D-41C8-AC02-F10577426197}">
+      <formula1>$A$1:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA14\Projects\lookups-da14-Hannah00Donnelly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4334C5CD-0A9D-4D14-8879-A02D47F2888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94067D3-666D-4778-ABC5-4FA1D36739FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="0" windowWidth="25560" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="0" windowWidth="22632" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,20 +831,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -831,6 +849,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -878,26 +918,55 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1040,10 +1109,10 @@
                   <c:v>4280900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4700400</c:v>
+                  <c:v>4677800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4677800</c:v>
+                  <c:v>4205555.5999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,38 +1977,38 @@
   <autoFilter ref="A1:P52" xr:uid="{3D3DAA7C-2324-483C-A2B1-3DEC056D54A0}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{6151F346-BDB7-4872-981A-99B9FD3C2018}" name="Department"/>
-    <tableColumn id="2" xr3:uid="{4F854E73-AB01-4382-86FB-331C309403A4}" name="FY17_Budget"/>
-    <tableColumn id="3" xr3:uid="{9245A4AF-901B-4643-AD65-407D31E1FEB2}" name="FY17_Actual"/>
-    <tableColumn id="4" xr3:uid="{0D711CD2-A71C-4FAC-8CED-445A681E63D4}" name="FY17_diff" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{4F854E73-AB01-4382-86FB-331C309403A4}" name="FY17_Budget" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9245A4AF-901B-4643-AD65-407D31E1FEB2}" name="FY17_Actual" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0D711CD2-A71C-4FAC-8CED-445A681E63D4}" name="FY17_diff" dataDxfId="1">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{59A8BE8B-4F4A-4E53-804A-EC5152B58902}" name="FY17_diff_pct" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR((D2)/B2,"-")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{59A8BE8B-4F4A-4E53-804A-EC5152B58902}" name="FY17_diff_pct" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR((D2)/B2,"0")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0C92D3F6-616C-4FD6-819F-EB47B05F4801}" name="FY17_rank">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,1),"N/A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CFD88B42-D679-4362-A52B-D2CD2A47D9DB}" name="FY18_Budget"/>
-    <tableColumn id="8" xr3:uid="{E8BFA86C-9224-42D7-980C-1C985697B53E}" name="FY18_Actual"/>
-    <tableColumn id="9" xr3:uid="{4E2C8136-3A7D-43F0-880B-AD553A18BE33}" name="FY18_diff" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{CFD88B42-D679-4362-A52B-D2CD2A47D9DB}" name="FY18_Budget" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{E8BFA86C-9224-42D7-980C-1C985697B53E}" name="FY18_Actual" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4E2C8136-3A7D-43F0-880B-AD553A18BE33}" name="FY18_diff" dataDxfId="11">
       <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B66D5D1F-A98F-4C8A-8671-F95B6DFBE3C5}" name="FY18_diff_pct" dataDxfId="2">
-      <calculatedColumnFormula>IFERROR((I2)/G2,"-")</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{B66D5D1F-A98F-4C8A-8671-F95B6DFBE3C5}" name="FY18_diff_pct" dataDxfId="4">
+      <calculatedColumnFormula>IFERROR((I2)/G2,"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9E2CA5C6-5C3F-49A5-8453-537C71889CF7}" name="FY18_rank">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"N/A")</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{9E2CA5C6-5C3F-49A5-8453-537C71889CF7}" name="FY18_rank" dataDxfId="10">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A989E0B0-42FD-48E7-B1B7-C1E8B54A72E5}" name="FY19_Budget"/>
-    <tableColumn id="13" xr3:uid="{8F6B28DF-6D4F-4B51-AC02-CFBA8EBD1DF2}" name="FY19_Actual"/>
-    <tableColumn id="14" xr3:uid="{4770734E-33BE-45D2-8059-AD929A0DE681}" name="FY19_diff" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{A989E0B0-42FD-48E7-B1B7-C1E8B54A72E5}" name="FY19_Budget" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{8F6B28DF-6D4F-4B51-AC02-CFBA8EBD1DF2}" name="FY19_Actual" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{4770734E-33BE-45D2-8059-AD929A0DE681}" name="FY19_diff" dataDxfId="7">
       <calculatedColumnFormula>M2-L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D0593219-90DE-440D-88CB-CB25920F01F7}" name="FY19_diff_pct" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{D0593219-90DE-440D-88CB-CB25920F01F7}" name="FY19_diff_pct" dataDxfId="6">
       <calculatedColumnFormula>IFERROR((N2)/L2,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D6F71B16-34F7-4F17-8069-003B8FBECDB4}" name="FY19_rank">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"N/A")</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{D6F71B16-34F7-4F17-8069-003B8FBECDB4}" name="FY19_rank" dataDxfId="5">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2245,16 +2314,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -2268,16 +2338,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -2318,58 +2388,58 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>356640100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D33" si="0">C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E33" si="1">IFERROR((D2)/B2,"-")</f>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E33" si="1">IFERROR((D2)/B2,"0")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
         <f>IFERROR(_xlfn.RANK.EQ(E2,E$2:E$52,1),"N/A")</f>
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <v>382685200</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="13">
         <v>346340810.81999999</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:I33" si="2">H2-G2</f>
         <v>-36344389.180000007</v>
       </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J52" si="3">IFERROR((I2)/G2,"-")</f>
+      <c r="J2" s="14">
+        <f t="shared" ref="J2:J33" si="3">IFERROR((I2)/G2,"0")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
-      <c r="K2">
-        <f>IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"N/A")</f>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:K33" si="4">IFERROR(_xlfn.RANK.EQ(J2,J$2:J$52,1),"0")</f>
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="13">
         <v>376548600</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="13">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="10">
-        <f t="shared" ref="N2:N33" si="4">M2-L2</f>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N33" si="5">M2-L2</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2:O33" si="5">IFERROR((N2)/L2,"-")</f>
+      <c r="O2" s="14">
+        <f t="shared" ref="O2:O33" si="6">IFERROR((N2)/L2,"-")</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2">
-        <f>IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"N/A")</f>
+      <c r="P2" s="13">
+        <f t="shared" ref="P2:P52" si="7">IFERROR(_xlfn.RANK.EQ(O2,O$2:O$52,1),"0")</f>
         <v>14</v>
       </c>
     </row>
@@ -2377,58 +2447,58 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>328800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>-7585.4099999999744</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="14">
         <f t="shared" si="1"/>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F52" si="6">IFERROR(_xlfn.RANK.EQ(E3,E$2:E$52,1),"N/A")</f>
+        <f t="shared" ref="F3:F52" si="8">IFERROR(_xlfn.RANK.EQ(E3,E$2:E$52,1),"N/A")</f>
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>334800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <v>312433.70999999897</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f t="shared" si="2"/>
         <v>-22366.290000001027</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="14">
         <f t="shared" si="3"/>
         <v>-6.6804928315415249E-2</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K52" si="7">IFERROR(_xlfn.RANK.EQ(J3,J$2:J$52,1),"N/A")</f>
+      <c r="K3" s="13">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="13">
         <v>322700</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="13">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="10">
-        <f t="shared" si="4"/>
+      <c r="N3" s="8">
+        <f t="shared" si="5"/>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" si="5"/>
+      <c r="O3" s="14">
+        <f t="shared" si="6"/>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P52" si="8">IFERROR(_xlfn.RANK.EQ(O3,O$2:O$52,1),"N/A")</f>
+      <c r="P3" s="13">
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -2436,58 +2506,58 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>3130600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="14">
         <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>3652300</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="13">
         <v>3589693.2099999902</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <f t="shared" si="2"/>
         <v>-62606.790000009816</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="14">
         <f t="shared" si="3"/>
         <v>-1.7141743558856015E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="L4" s="13">
+        <v>3662400</v>
+      </c>
+      <c r="M4" s="13">
+        <v>3564983.04999999</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="5"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4" s="13">
         <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="L4">
-        <v>3662400</v>
-      </c>
-      <c r="M4">
-        <v>3564983.04999999</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" si="4"/>
-        <v>-97416.950000009965</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.6599210899959033E-2</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -2495,58 +2565,58 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>7670700</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <v>7968300</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="13">
         <v>7020609.3200000003</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <f t="shared" si="2"/>
         <v>-947690.6799999997</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="14">
         <f t="shared" si="3"/>
         <v>-0.118932605449092</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>7759600</v>
+      </c>
+      <c r="M5" s="13">
+        <v>7497322.9100000001</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="5"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5" s="13">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>7759600</v>
-      </c>
-      <c r="M5">
-        <v>7497322.9100000001</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="4"/>
-        <v>-262277.08999999985</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.3800336357544182E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -2554,58 +2624,58 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>409300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>428500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="13">
         <v>427758.64</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f t="shared" si="2"/>
         <v>-741.35999999998603</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
         <v>-1.7301283547257551E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="13">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="L6" s="13">
+        <v>445200</v>
+      </c>
+      <c r="M6" s="13">
+        <v>445114.28999999899</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="5"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6" s="13">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="L6">
-        <v>445200</v>
-      </c>
-      <c r="M6">
-        <v>445114.28999999899</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="4"/>
-        <v>-85.710000001010485</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.925202156356929E-4</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
@@ -2613,58 +2683,58 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>3329000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
       <c r="F7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>3390900</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="13">
         <v>3051483.41</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f t="shared" si="2"/>
         <v>-339416.58999999985</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
         <v>-0.10009631366303927</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L7" s="13">
+        <v>3345200</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2946440.08</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="5"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>3345200</v>
-      </c>
-      <c r="M7">
-        <v>2946440.08</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="4"/>
-        <v>-398759.91999999993</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.11920361114432618</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -2672,58 +2742,58 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>1552100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
       <c r="F8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>1590700</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="13">
         <v>1383905.98999999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>-206794.01000001002</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
         <v>-0.13000189224870184</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1579300</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>1579300</v>
-      </c>
-      <c r="M8">
-        <v>1337735.3199999901</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="4"/>
-        <v>-241564.68000000995</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.15295680364719175</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -2731,58 +2801,58 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>9349400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>11073700</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="13">
         <v>9929059.5199999996</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>-1144640.4800000004</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="14">
         <f t="shared" si="3"/>
         <v>-0.10336567542917005</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="13">
+        <v>10790500</v>
+      </c>
+      <c r="M9" s="13">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="5"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="6"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>10790500</v>
-      </c>
-      <c r="M9">
-        <v>9993599.52999999</v>
-      </c>
-      <c r="N9" s="10">
-        <f t="shared" si="4"/>
-        <v>-796900.47000000998</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="5"/>
-        <v>-7.3852043000788653E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -2790,58 +2860,58 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>443300</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>495200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="13">
         <v>467907.84000000003</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>-27292.159999999974</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
         <v>-5.5113408723747932E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="13">
+        <v>487500</v>
+      </c>
+      <c r="M10" s="13">
+        <v>478318.92</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>487500</v>
-      </c>
-      <c r="M10">
-        <v>478318.92</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="4"/>
-        <v>-9181.0800000000163</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.883298461538465E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -2849,58 +2919,58 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="F11">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="K11" t="str">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L11" s="13">
+        <v>375000</v>
+      </c>
+      <c r="M11" s="13">
+        <v>63771.91</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="7"/>
-        <v>N/A</v>
-      </c>
-      <c r="L11">
-        <v>375000</v>
-      </c>
-      <c r="M11">
-        <v>63771.91</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="4"/>
-        <v>-311228.08999999997</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.82994157333333329</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2908,58 +2978,58 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>4280900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="14">
         <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>4700400</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="13">
         <v>4205555.5999999996</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>-494844.40000000037</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
         <v>-0.10527708280146378</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L12" s="13">
+        <v>4677800</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4371713.1399999997</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="6"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>4677800</v>
-      </c>
-      <c r="M12">
-        <v>4371713.1399999997</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="4"/>
-        <v>-306086.86000000034</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.5433934755654441E-2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -2967,58 +3037,58 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>5847800</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="14">
         <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>6223700</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>-314622.06000000983</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="14">
         <f t="shared" si="3"/>
         <v>-5.0552253482656594E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L13" s="13">
+        <v>6207300</v>
+      </c>
+      <c r="M13" s="13">
+        <v>6056976.6699999999</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>6207300</v>
-      </c>
-      <c r="M13">
-        <v>6056976.6699999999</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="4"/>
-        <v>-150323.33000000007</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.4217184605222895E-2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
@@ -3026,58 +3096,58 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <v>512000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="14">
         <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>530500</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="13">
         <v>524402.98</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
         <v>-6097.0200000000186</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>-1.1492968897266765E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="13">
+        <v>526200</v>
+      </c>
+      <c r="M14" s="13">
+        <v>504989.88</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="5"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="6"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14" s="13">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="L14">
-        <v>526200</v>
-      </c>
-      <c r="M14">
-        <v>504989.88</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="4"/>
-        <v>-21210.119999999995</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.0308095781071827E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -3085,58 +3155,58 @@
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="13">
         <v>156049100</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="14">
         <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>184167800</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="13">
         <v>175966389.24999899</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
         <v>-8201410.7500010133</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="14">
         <f t="shared" si="3"/>
         <v>-4.4532273014072019E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L15" s="13">
+        <v>188953500</v>
+      </c>
+      <c r="M15" s="13">
+        <v>184450910.84999901</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15" s="13">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="L15">
-        <v>188953500</v>
-      </c>
-      <c r="M15">
-        <v>184450910.84999901</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="4"/>
-        <v>-4502589.1500009894</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.3829085727446114E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -3144,58 +3214,58 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>6600700</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="14">
         <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>7352500</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="13">
         <v>7350464.0800000001</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>-2035.9199999999255</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
         <v>-2.769017341040361E-4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L16" s="13">
+        <v>7397200</v>
+      </c>
+      <c r="M16" s="13">
+        <v>7397093</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16" s="13">
         <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="L16">
-        <v>7397200</v>
-      </c>
-      <c r="M16">
-        <v>7397093</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="4"/>
-        <v>-107</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.4464932677229222E-5</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
@@ -3203,58 +3273,58 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>14860800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="14">
         <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>15309700</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="13">
         <v>14645233.51</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
         <v>-664466.49000000022</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="14">
         <f t="shared" si="3"/>
         <v>-4.3401666263871937E-2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L17" s="13">
+        <v>15311800</v>
+      </c>
+      <c r="M17" s="13">
+        <v>14346057.039999999</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="5"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="6"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17" s="13">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="L17">
-        <v>15311800</v>
-      </c>
-      <c r="M17">
-        <v>14346057.039999999</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="4"/>
-        <v>-965742.96000000089</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.3071811282801551E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -3262,58 +3332,58 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>2764700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="14">
         <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>2861000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <v>2671745.94</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="14">
         <f t="shared" si="3"/>
         <v>-6.6149619014330668E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L18" s="13">
+        <v>2910600</v>
+      </c>
+      <c r="M18" s="13">
+        <v>2535637.09</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="5"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18" s="13">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="L18">
-        <v>2910600</v>
-      </c>
-      <c r="M18">
-        <v>2535637.09</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="4"/>
-        <v>-374962.91000000015</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.12882667147667154</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -3321,58 +3391,58 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>8837300</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="14">
         <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>9713300</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="13">
         <v>8991707.2399999909</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <f t="shared" si="2"/>
         <v>-721592.76000000909</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="14">
         <f t="shared" si="3"/>
         <v>-7.4289145810384635E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L19" s="13">
+        <v>9343000</v>
+      </c>
+      <c r="M19" s="13">
+        <v>8766655.9100000001</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="6"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19" s="13">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="L19">
-        <v>9343000</v>
-      </c>
-      <c r="M19">
-        <v>8766655.9100000001</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="4"/>
-        <v>-576344.08999999985</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.1687262121374278E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -3380,58 +3450,58 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="13">
         <v>124385900</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="14">
         <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>131849400</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="13">
         <v>131839624.37</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <f t="shared" si="2"/>
         <v>-9775.6299999952316</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="14">
         <f t="shared" si="3"/>
         <v>-7.4142392760188761E-5</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="13">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="L20" s="13">
+        <v>130621400</v>
+      </c>
+      <c r="M20" s="13">
+        <v>130621283.53999899</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="5"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="6"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20" s="13">
         <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="L20">
-        <v>130621400</v>
-      </c>
-      <c r="M20">
-        <v>130621283.53999899</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="4"/>
-        <v>-116.46000100672245</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="5"/>
-        <v>-8.9158438821450736E-7</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3439,58 +3509,58 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>24332100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="14">
         <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="13">
         <v>24497400</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="13">
         <v>22655993.629999999</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <f t="shared" si="2"/>
         <v>-1841406.370000001</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="14">
         <f t="shared" si="3"/>
         <v>-7.5167420624229556E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="L21" s="13">
+        <v>24323000</v>
+      </c>
+      <c r="M21" s="13">
+        <v>23434073.089999899</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="5"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21" s="13">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="L21">
-        <v>24323000</v>
-      </c>
-      <c r="M21">
-        <v>23434073.089999899</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="4"/>
-        <v>-888926.91000010073</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.6546762734864152E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -3498,58 +3568,58 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="13">
         <v>11566000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="14">
         <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <v>11980700</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="13">
         <v>11791977.9699999</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="2"/>
         <v>-188722.03000009991</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="14">
         <f t="shared" si="3"/>
         <v>-1.5752170574348738E-2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="13">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="L22" s="13">
+        <v>11935200</v>
+      </c>
+      <c r="M22" s="13">
+        <v>11934454.77</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="5"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="6"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22" s="13">
         <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="L22">
-        <v>11935200</v>
-      </c>
-      <c r="M22">
-        <v>11934454.77</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="4"/>
-        <v>-745.23000000044703</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.2439674240938325E-5</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
@@ -3557,58 +3627,58 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="13">
         <v>20862700</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="14">
         <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="13">
         <v>22683800</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="13">
         <v>21722126.219999898</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <f t="shared" si="2"/>
         <v>-961673.78000010177</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="14">
         <f t="shared" si="3"/>
         <v>-4.2394738976719144E-2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="13">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="L23" s="13">
+        <v>23220300</v>
+      </c>
+      <c r="M23" s="13">
+        <v>22619057.440000001</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="5"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23" s="13">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="L23">
-        <v>23220300</v>
-      </c>
-      <c r="M23">
-        <v>22619057.440000001</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="4"/>
-        <v>-601242.55999999866</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.5892971236375011E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -3616,58 +3686,58 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="13">
         <v>917200</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="13">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="14">
         <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13">
         <v>1112700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="13">
         <v>1067214.42</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <f t="shared" si="2"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="14">
         <f t="shared" si="3"/>
         <v>-4.087856565111897E-2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="13">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1112600</v>
+      </c>
+      <c r="M24" s="13">
+        <v>1112527.1200000001</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="5"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="6"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24" s="13">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="L24">
-        <v>1112600</v>
-      </c>
-      <c r="M24">
-        <v>1112527.1200000001</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="4"/>
-        <v>-72.879999999888241</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.5504224339284781E-5</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
@@ -3675,58 +3745,58 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="13">
         <v>484100</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="14">
         <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>505200</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="13">
         <v>497194.20999999897</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <f t="shared" si="2"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="14">
         <f t="shared" si="3"/>
         <v>-1.5846773555029746E-2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="13">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="L25" s="13">
+        <v>496500</v>
+      </c>
+      <c r="M25" s="13">
+        <v>494775.1</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="5"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25" s="13">
         <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="L25">
-        <v>496500</v>
-      </c>
-      <c r="M25">
-        <v>494775.1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="4"/>
-        <v>-1724.9000000000233</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.4741188318228064E-3</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -3734,58 +3804,58 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>5249800</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="13">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="14">
         <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="13">
         <v>5442200</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="13">
         <v>5122329.02999999</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <f t="shared" si="2"/>
         <v>-319870.97000000998</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="14">
         <f t="shared" si="3"/>
         <v>-5.8776040939327839E-2</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="L26" s="13">
+        <v>5430700</v>
+      </c>
+      <c r="M26" s="13">
+        <v>5117235.21</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="5"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="6"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26" s="13">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L26">
-        <v>5430700</v>
-      </c>
-      <c r="M26">
-        <v>5117235.21</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="4"/>
-        <v>-313464.79000000004</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="5"/>
-        <v>-5.7720881286022069E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -3793,117 +3863,117 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="13">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="13">
         <v>0</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="str">
+      <c r="E27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="10">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="5" t="str">
+      <c r="J27" s="14" t="str">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="14" t="str">
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="K27" t="str">
+      <c r="P27" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>N/A</v>
-      </c>
-      <c r="L27">
         <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>1382900</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="13">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="14">
         <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="13">
         <v>1545700</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="13">
         <v>1281335.23</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <f t="shared" si="2"/>
         <v>-264364.77</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="14">
         <f t="shared" si="3"/>
         <v>-0.17103239309050916</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1525900</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1393285.06</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="5"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="6"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28" s="13">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>1525900</v>
-      </c>
-      <c r="M28">
-        <v>1393285.06</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="4"/>
-        <v>-132614.93999999994</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="5"/>
-        <v>-8.6909325643882263E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -3911,58 +3981,58 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="13">
         <v>2561800</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="14">
         <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="13">
         <v>2779500</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="13">
         <v>2665264.4399999902</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <f t="shared" si="2"/>
         <v>-114235.56000000983</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="14">
         <f t="shared" si="3"/>
         <v>-4.1099320021590155E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="13">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="L29" s="13">
+        <v>2889900</v>
+      </c>
+      <c r="M29" s="13">
+        <v>2889864.67</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="5"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29" s="13">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="L29">
-        <v>2889900</v>
-      </c>
-      <c r="M29">
-        <v>2889864.67</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>-35.330000000074506</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.2225336516860273E-5</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
@@ -3970,58 +4040,58 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="13">
         <v>12132200</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="13">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="14">
         <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="13">
         <v>12735900</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="13">
         <v>12685514.279999901</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <f t="shared" si="2"/>
         <v>-50385.720000099391</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="14">
         <f t="shared" si="3"/>
         <v>-3.9561962641116366E-3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="13">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="L30" s="13">
+        <v>12861300</v>
+      </c>
+      <c r="M30" s="13">
+        <v>12826009.609999999</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="5"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30" s="13">
         <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="L30">
-        <v>12861300</v>
-      </c>
-      <c r="M30">
-        <v>12826009.609999999</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="4"/>
-        <v>-35290.390000000596</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7439209100169185E-3</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
@@ -4029,58 +4099,58 @@
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>1765600</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="13">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="14">
         <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="13">
         <v>1823300</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="13">
         <v>1762676.85</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <f t="shared" si="2"/>
         <v>-60623.149999999907</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="14">
         <f t="shared" si="3"/>
         <v>-3.3249136181648611E-2</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="13">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="L31" s="13">
+        <v>1870700</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1801391.34</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="5"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31" s="13">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="L31">
-        <v>1870700</v>
-      </c>
-      <c r="M31">
-        <v>1801391.34</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="4"/>
-        <v>-69308.659999999916</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.7049585716576634E-2</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -4088,58 +4158,58 @@
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="13">
         <v>5999400</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="13">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="14">
         <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="13">
         <v>6195500</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="13">
         <v>6084985.4699999997</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <f t="shared" si="2"/>
         <v>-110514.53000000026</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="14">
         <f t="shared" si="3"/>
         <v>-1.7837871035428981E-2</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="13">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="L32" s="13">
+        <v>6157400</v>
+      </c>
+      <c r="M32" s="13">
+        <v>5987572.0199999996</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="5"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32" s="13">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="L32">
-        <v>6157400</v>
-      </c>
-      <c r="M32">
-        <v>5987572.0199999996</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="4"/>
-        <v>-169827.98000000045</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7581118653977402E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -4147,58 +4217,58 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="13">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>920284264.73000002</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="14">
         <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="13">
         <v>979671000</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="13">
         <v>977068513.48000002</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <f t="shared" si="2"/>
         <v>-2602486.5199999809</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="14">
         <f t="shared" si="3"/>
         <v>-2.6564903115433454E-3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="13">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="L33" s="13">
+        <v>989572899.99999905</v>
+      </c>
+      <c r="M33" s="13">
+        <v>984116289.40999901</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="5"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="14">
+        <f t="shared" si="6"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33" s="13">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="L33">
-        <v>989572899.99999905</v>
-      </c>
-      <c r="M33">
-        <v>984116289.40999901</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="4"/>
-        <v>-5456610.5900000334</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" si="5"/>
-        <v>-5.5141067323084929E-3</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
@@ -4206,58 +4276,58 @@
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="13">
         <v>4189300</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="13">
         <v>4109958.22</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <f t="shared" ref="D34:D52" si="9">C34-B34</f>
         <v>-79341.779999999795</v>
       </c>
-      <c r="E34" s="5">
-        <f t="shared" ref="E34:E52" si="10">IFERROR((D34)/B34,"-")</f>
+      <c r="E34" s="14">
+        <f t="shared" ref="E34:E65" si="10">IFERROR((D34)/B34,"0")</f>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="13">
         <v>4350600</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="13">
         <v>4137588.7699999898</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <f t="shared" ref="I34:I52" si="11">H34-G34</f>
         <v>-213011.23000001023</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="3"/>
+      <c r="J34" s="14">
+        <f t="shared" ref="J34:J65" si="12">IFERROR((I34)/G34,"0")</f>
         <v>-4.8961345561534093E-2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="13">
+        <f t="shared" ref="K34:K65" si="13">IFERROR(_xlfn.RANK.EQ(J34,J$2:J$52,1),"0")</f>
+        <v>21</v>
+      </c>
+      <c r="L34" s="13">
+        <v>4345600</v>
+      </c>
+      <c r="M34" s="13">
+        <v>4229801.51</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" ref="N34:N52" si="14">M34-L34</f>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="14">
+        <f t="shared" ref="O34:O52" si="15">IFERROR((N34)/L34,"-")</f>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34" s="13">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="L34">
-        <v>4345600</v>
-      </c>
-      <c r="M34">
-        <v>4229801.51</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" ref="N34:N52" si="12">M34-L34</f>
-        <v>-115798.49000000022</v>
-      </c>
-      <c r="O34" s="5">
-        <f t="shared" ref="O34:O52" si="13">IFERROR((N34)/L34,"-")</f>
-        <v>-2.6647296115611244E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -4265,117 +4335,117 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="13">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="13">
         <v>0</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E35" s="5" t="str">
+      <c r="E35" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="10">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="7"/>
-        <v>N/A</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
+      <c r="J35" s="14" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O35" s="5" t="str">
+      <c r="K35" s="13">
         <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="14" t="str">
+        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
+      <c r="P35" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="13">
         <v>798200</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="13">
         <v>735423.27999999898</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <f t="shared" si="9"/>
         <v>-62776.72000000102</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="14">
         <f t="shared" si="10"/>
         <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="13">
         <v>898700</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="13">
         <v>740966.94999999902</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <f t="shared" si="11"/>
         <v>-157733.05000000098</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="3"/>
+      <c r="J36" s="14">
+        <f t="shared" si="12"/>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>878300</v>
+      </c>
+      <c r="M36" s="13">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="14"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" si="15"/>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>878300</v>
-      </c>
-      <c r="M36">
-        <v>777215.28999999899</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="12"/>
-        <v>-101084.71000000101</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" si="13"/>
-        <v>-0.11509132414892521</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -4383,58 +4453,58 @@
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="13">
         <v>2087800</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="13">
         <v>2005447.73999999</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <f t="shared" si="9"/>
         <v>-82352.260000010021</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="14">
         <f t="shared" si="10"/>
         <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="13">
         <v>2229200</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="13">
         <v>2118943.21</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <f t="shared" si="11"/>
         <v>-110256.79000000004</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="3"/>
+      <c r="J37" s="14">
+        <f t="shared" si="12"/>
         <v>-4.9460250314014013E-2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="13">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L37" s="13">
+        <v>2296900</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2108718.34</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="14"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="14">
+        <f t="shared" si="15"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37" s="13">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>2296900</v>
-      </c>
-      <c r="M37">
-        <v>2108718.34</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" si="12"/>
-        <v>-188181.66000000015</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" si="13"/>
-        <v>-8.1928538464887526E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -4442,58 +4512,58 @@
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="13">
         <v>855300</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="13">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <f t="shared" si="9"/>
         <v>-16630.180000000051</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="14">
         <f t="shared" si="10"/>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="13">
         <v>792800</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="13">
         <v>753451.96</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <f t="shared" si="11"/>
         <v>-39348.040000000037</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="3"/>
+      <c r="J38" s="14">
+        <f t="shared" si="12"/>
         <v>-4.9631735620585316E-2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="13">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L38" s="13">
+        <v>777800</v>
+      </c>
+      <c r="M38" s="13">
+        <v>777663.26</v>
+      </c>
+      <c r="N38" s="8">
+        <f t="shared" si="14"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38" s="13">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="L38">
-        <v>777800</v>
-      </c>
-      <c r="M38">
-        <v>777663.26</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="12"/>
-        <v>-136.73999999999069</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.7580354847003174E-4</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -4501,58 +4571,58 @@
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="13">
         <v>883900</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="13">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <f t="shared" si="9"/>
         <v>-70791.13</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="14">
         <f t="shared" si="10"/>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="13">
         <v>1294400</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="13">
         <v>1114242.27999999</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <f t="shared" si="11"/>
         <v>-180157.72000000998</v>
       </c>
-      <c r="J39" s="5">
-        <f t="shared" si="3"/>
+      <c r="J39" s="14">
+        <f t="shared" si="12"/>
         <v>-0.13918241656366656</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="13">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="13">
+        <v>1759500</v>
+      </c>
+      <c r="M39" s="13">
+        <v>1680463.8699999901</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" si="14"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="15"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39" s="13">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>1759500</v>
-      </c>
-      <c r="M39">
-        <v>1680463.8699999901</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="12"/>
-        <v>-79036.1300000099</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" si="13"/>
-        <v>-4.4919653310605226E-2</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -4560,58 +4630,58 @@
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="13">
         <v>38381900</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="13">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <f t="shared" si="9"/>
         <v>-816758.14000009745</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="14">
         <f t="shared" si="10"/>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="13">
         <v>39964900</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="13">
         <v>38095240.189999901</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <f t="shared" si="11"/>
         <v>-1869659.8100000992</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="3"/>
+      <c r="J40" s="14">
+        <f t="shared" si="12"/>
         <v>-4.6782546934937892E-2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="13">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="L40" s="13">
+        <v>40216700</v>
+      </c>
+      <c r="M40" s="13">
+        <v>39606263.709999897</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" si="14"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40" s="13">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="L40">
-        <v>40216700</v>
-      </c>
-      <c r="M40">
-        <v>39606263.709999897</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="12"/>
-        <v>-610436.29000010341</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.5178676768608648E-2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
@@ -4619,58 +4689,58 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="13">
         <v>4593300</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="13">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="14">
         <f t="shared" si="10"/>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="13">
         <v>5089500</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="13">
         <v>4956043.6699999897</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="8">
         <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="3"/>
+      <c r="J41" s="14">
+        <f t="shared" si="12"/>
         <v>-2.6221894095689226E-2</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="13">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="L41" s="13">
+        <v>4799900</v>
+      </c>
+      <c r="M41" s="13">
+        <v>4717822.6500000004</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41" s="13">
         <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="L41">
-        <v>4799900</v>
-      </c>
-      <c r="M41">
-        <v>4717822.6500000004</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="12"/>
-        <v>-82077.349999999627</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.7099804162586642E-2</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -4678,58 +4748,58 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="13">
         <v>188593300</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <f t="shared" si="9"/>
         <v>-41624.320001006126</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="14">
         <f t="shared" si="10"/>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="13">
         <v>199130300</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="13">
         <v>196755033.31</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="8">
         <f t="shared" si="11"/>
         <v>-2375266.6899999976</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="3"/>
+      <c r="J42" s="14">
+        <f t="shared" si="12"/>
         <v>-1.1928203241796942E-2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="13">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="L42" s="13">
+        <v>199954600</v>
+      </c>
+      <c r="M42" s="13">
+        <v>199954563.74999899</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="14"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42" s="13">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="L42">
-        <v>199954600</v>
-      </c>
-      <c r="M42">
-        <v>199954563.74999899</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="12"/>
-        <v>-36.250001013278961</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.8129115815929696E-7</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -4737,58 +4807,58 @@
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="13">
         <v>8135400</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <f t="shared" si="9"/>
         <v>-166754.16999999993</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="14">
         <f t="shared" si="10"/>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="13">
         <v>8560800</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="13">
         <v>8171472.0199999996</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <f t="shared" si="11"/>
         <v>-389327.98000000045</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="3"/>
+      <c r="J43" s="14">
+        <f t="shared" si="12"/>
         <v>-4.5477990374731388E-2</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="13">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="L43" s="13">
+        <v>8497500</v>
+      </c>
+      <c r="M43" s="13">
+        <v>8150982.5699999901</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="14"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" si="15"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43" s="13">
         <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="L43">
-        <v>8497500</v>
-      </c>
-      <c r="M43">
-        <v>8150982.5699999901</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="12"/>
-        <v>-346517.43000000995</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="13"/>
-        <v>-4.0778750220654303E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -4796,58 +4866,58 @@
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="13">
         <v>30083200</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="13">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <f t="shared" si="9"/>
         <v>-294095.62000000104</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="14">
         <f t="shared" si="10"/>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="13">
         <v>31040700</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="13">
         <v>30793711.48</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="8">
         <f t="shared" si="11"/>
         <v>-246988.51999999955</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="3"/>
+      <c r="J44" s="14">
+        <f t="shared" si="12"/>
         <v>-7.9569249404813532E-3</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="13">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="L44" s="13">
+        <v>31282200</v>
+      </c>
+      <c r="M44" s="13">
+        <v>31282141.25</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" si="14"/>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44" s="13">
         <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="L44">
-        <v>31282200</v>
-      </c>
-      <c r="M44">
-        <v>31282141.25</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="12"/>
-        <v>-58.75</v>
-      </c>
-      <c r="O44" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.8780648419868168E-6</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
@@ -4855,58 +4925,58 @@
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="13">
         <v>55301600</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="13">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <f t="shared" si="9"/>
         <v>-712015.95000009984</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="14">
         <f t="shared" si="10"/>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="13">
         <v>56792200</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="13">
         <v>54594953.959999897</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="8">
         <f t="shared" si="11"/>
         <v>-2197246.0400001034</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="3"/>
+      <c r="J45" s="14">
+        <f t="shared" si="12"/>
         <v>-3.8689222111488959E-2</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="13">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L45" s="13">
+        <v>56027100</v>
+      </c>
+      <c r="M45" s="13">
+        <v>55386549.6599999</v>
+      </c>
+      <c r="N45" s="8">
+        <f t="shared" si="14"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45" s="13">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="L45">
-        <v>56027100</v>
-      </c>
-      <c r="M45">
-        <v>55386549.6599999</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="12"/>
-        <v>-640550.34000010043</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.1432866237947358E-2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
@@ -4914,58 +4984,58 @@
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="13">
         <v>259100</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="13">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <f t="shared" si="9"/>
         <v>-777.57000000000698</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="14">
         <f t="shared" si="10"/>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="13">
         <v>266000</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="13">
         <v>257402.90999999901</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="8">
         <f t="shared" si="11"/>
         <v>-8597.090000000986</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="3"/>
+      <c r="J46" s="14">
+        <f t="shared" si="12"/>
         <v>-3.2319887218048821E-2</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="13">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="L46" s="13">
+        <v>267100</v>
+      </c>
+      <c r="M46" s="13">
+        <v>254753.15999999901</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="14"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="14">
+        <f t="shared" si="15"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46" s="13">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="L46">
-        <v>267100</v>
-      </c>
-      <c r="M46">
-        <v>254753.15999999901</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="12"/>
-        <v>-12346.840000000986</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="13"/>
-        <v>-4.6225533508053113E-2</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -4973,58 +5043,58 @@
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="13">
         <v>70390700</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="13">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <f t="shared" si="9"/>
         <v>-12273.280000001192</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="14">
         <f t="shared" si="10"/>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="13">
         <v>73467000</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="13">
         <v>73442541.659999996</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <f t="shared" si="11"/>
         <v>-24458.340000003576</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="3"/>
+      <c r="J47" s="14">
+        <f t="shared" si="12"/>
         <v>-3.3291600310348285E-4</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="13">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L47" s="13">
+        <v>75072800</v>
+      </c>
+      <c r="M47" s="13">
+        <v>75050829.179999903</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" si="14"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" si="15"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47" s="13">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="L47">
-        <v>75072800</v>
-      </c>
-      <c r="M47">
-        <v>75050829.179999903</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="12"/>
-        <v>-21970.820000097156</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="13"/>
-        <v>-2.9266019117572752E-4</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
@@ -5032,58 +5102,58 @@
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="13">
         <v>6737100</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="13">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <f t="shared" si="9"/>
         <v>-209747.43000000995</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="14">
         <f t="shared" si="10"/>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="13">
         <v>7214700</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="13">
         <v>6922072.5599999996</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="8">
         <f t="shared" si="11"/>
         <v>-292627.44000000041</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="3"/>
+      <c r="J48" s="14">
+        <f t="shared" si="12"/>
         <v>-4.0559890224125802E-2</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="13">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="L48" s="13">
+        <v>7289800</v>
+      </c>
+      <c r="M48" s="13">
+        <v>6882350.23999999</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="14"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="14">
+        <f t="shared" si="15"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48" s="13">
         <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="L48">
-        <v>7289800</v>
-      </c>
-      <c r="M48">
-        <v>6882350.23999999</v>
-      </c>
-      <c r="N48" s="10">
-        <f t="shared" si="12"/>
-        <v>-407449.76000001002</v>
-      </c>
-      <c r="O48" s="5">
-        <f t="shared" si="13"/>
-        <v>-5.5893132870587676E-2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -5091,117 +5161,117 @@
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="13">
         <v>92200</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="13">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <f t="shared" si="9"/>
         <v>-1700.570000000007</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="14">
         <f t="shared" si="10"/>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="13">
         <v>102600</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="13">
         <v>95466.880000000005</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="8">
         <f t="shared" si="11"/>
         <v>-7133.1199999999953</v>
       </c>
-      <c r="J49" s="5">
-        <f t="shared" si="3"/>
+      <c r="J49" s="14">
+        <f t="shared" si="12"/>
         <v>-6.9523586744639335E-2</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="13">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="14" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="P49" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="L49">
         <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="13">
         <v>832600</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="13">
         <v>832600</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="13">
         <v>859100</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="13">
         <v>859100</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="L50">
-        <v>843200</v>
-      </c>
-      <c r="M50">
-        <v>843200</v>
-      </c>
-      <c r="N50" s="10">
+      <c r="J50" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O50" s="5">
+      <c r="K50" s="13">
         <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="L50" s="13">
+        <v>843200</v>
+      </c>
+      <c r="M50" s="13">
+        <v>843200</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="8"/>
+      <c r="O50" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
@@ -5209,58 +5279,58 @@
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="13">
         <v>8609500</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="13">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <f t="shared" si="9"/>
         <v>-110074.66000000946</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="14">
         <f t="shared" si="10"/>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="13">
         <v>8925500</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="13">
         <v>8599059.6199999992</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="8">
         <f t="shared" si="11"/>
         <v>-326440.38000000082</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" si="3"/>
+      <c r="J51" s="14">
+        <f t="shared" si="12"/>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="13">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="L51" s="13">
+        <v>8833900</v>
+      </c>
+      <c r="M51" s="13">
+        <v>8735843.3100000005</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" si="14"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51" s="13">
         <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="L51">
-        <v>8833900</v>
-      </c>
-      <c r="M51">
-        <v>8735843.3100000005</v>
-      </c>
-      <c r="N51" s="10">
-        <f t="shared" si="12"/>
-        <v>-98056.689999999478</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.1100045280114048E-2</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
@@ -5268,58 +5338,58 @@
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="13">
         <v>2451000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="13">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <f t="shared" si="9"/>
         <v>-196315.20000000019</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="14">
         <f t="shared" si="10"/>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="13">
         <v>2440700</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="13">
         <v>2204672.88</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="8">
         <f t="shared" si="11"/>
         <v>-236027.12000000011</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" si="3"/>
+      <c r="J52" s="14">
+        <f t="shared" si="12"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="13">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="L52" s="13">
+        <v>2321600</v>
+      </c>
+      <c r="M52" s="13">
+        <v>2056835.26</v>
+      </c>
+      <c r="N52" s="8">
+        <f t="shared" si="14"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" si="15"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52" s="13">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L52">
-        <v>2321600</v>
-      </c>
-      <c r="M52">
-        <v>2056835.26</v>
-      </c>
-      <c r="N52" s="10">
-        <f t="shared" si="12"/>
-        <v>-264764.74</v>
-      </c>
-      <c r="O52" s="5">
-        <f t="shared" si="13"/>
-        <v>-0.11404408166781529</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -5332,120 +5402,148 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B56">
-        <f>VLOOKUP($A56,$A$1:D$52,4)</f>
+      <c r="B56" s="13">
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH(B$55,$A$1:$P$1,0))</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C56">
-        <f>VLOOKUP($A56,$A$1:I$52,9)</f>
+      <c r="C56" s="13">
+        <f t="shared" ref="C56:D61" si="16">VLOOKUP($A56,$A$1:$P$52,MATCH(C$55,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56">
-        <f>VLOOKUP($A56,$A$1:N$52,14)</f>
+      <c r="D56" s="13">
+        <f t="shared" si="16"/>
         <v>-9181.0800000000163</v>
       </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57">
-        <f>VLOOKUP($A57,$A$1:D$52,4)</f>
+      <c r="B57" s="13">
+        <f t="shared" ref="B57:B61" si="17">VLOOKUP($A57,$A$1:$P$52,MATCH(B$55,$A$1:$P$1,0))</f>
         <v>0</v>
       </c>
-      <c r="C57">
-        <f>VLOOKUP($A57,$A$1:I$52,9)</f>
+      <c r="C57" s="13">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D57">
-        <f>VLOOKUP($A57,$A$1:N$52,14)</f>
+      <c r="D57" s="13">
+        <f t="shared" si="16"/>
         <v>-311228.08999999997</v>
       </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B58">
-        <f>VLOOKUP($A58,$A$1:D$52,4)</f>
+      <c r="B58" s="13">
+        <f t="shared" si="17"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C58">
-        <f>VLOOKUP($A58,$A$1:I$52,9)</f>
+      <c r="C58" s="13">
+        <f t="shared" si="16"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D58">
-        <f>VLOOKUP($A58,$A$1:N$52,14)</f>
+      <c r="D58" s="13">
+        <f t="shared" si="16"/>
         <v>-374962.91000000015</v>
       </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59">
-        <f>VLOOKUP($A59,$A$1:D$52,4)</f>
+      <c r="B59" s="13">
+        <f t="shared" si="17"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C59">
-        <f>VLOOKUP($A59,$A$1:I$52,9)</f>
+      <c r="C59" s="13">
+        <f t="shared" si="16"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D59">
-        <f>VLOOKUP($A59,$A$1:N$52,14)</f>
+      <c r="D59" s="13">
+        <f t="shared" si="16"/>
         <v>-72.879999999888241</v>
       </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60">
-        <f>VLOOKUP($A60,$A$1:D$52,4)</f>
+      <c r="B60" s="13">
+        <f t="shared" si="17"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C60">
-        <f>VLOOKUP($A60,$A$1:I$52,9)</f>
+      <c r="C60" s="13">
+        <f t="shared" si="16"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D60">
-        <f>VLOOKUP($A60,$A$1:N$52,14)</f>
+      <c r="D60" s="13">
+        <f t="shared" si="16"/>
         <v>-1724.9000000000233</v>
       </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B61">
-        <f>VLOOKUP($A61,$A$1:D$52,4)</f>
+      <c r="B61" s="13">
+        <f t="shared" si="17"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C61">
-        <f>VLOOKUP($A61,$A$1:I$52,9)</f>
+      <c r="C61" s="13">
+        <f t="shared" si="16"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D61">
-        <f>VLOOKUP($A61,$A$1:N$52,14)</f>
+      <c r="D61" s="13">
+        <f t="shared" si="16"/>
         <v>-82077.349999999627</v>
       </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5453,13 +5551,13 @@
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5467,16 +5565,16 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65">
-        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$D$1:$D$52)</f>
+      <c r="B65" s="13" cm="1">
+        <f t="array" ref="B65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65">
-        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$I$1:$I$52)</f>
+      <c r="C65" s="13" cm="1">
+        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65">
-        <f>_xlfn.XLOOKUP($A65,$A$1:$A$52,$N$1:$N$52)</f>
+      <c r="D65" s="13" cm="1">
+        <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -5484,16 +5582,16 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B70" si="14">_xlfn.XLOOKUP($A66,$A$1:$A$52,$D$1:$D$52)</f>
+      <c r="B66" s="13" cm="1">
+        <f t="array" ref="B66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>0</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C70" si="15">_xlfn.XLOOKUP($A66,$A$1:$A$52,$I$1:$I$52)</f>
+      <c r="C66" s="13" cm="1">
+        <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>0</v>
       </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D70" si="16">_xlfn.XLOOKUP($A66,$A$1:$A$52,$N$1:$N$52)</f>
+      <c r="D66" s="13" cm="1">
+        <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -5501,16 +5599,16 @@
       <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="14"/>
+      <c r="B67" s="13" cm="1">
+        <f t="array" ref="B67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="15"/>
+      <c r="C67" s="13" cm="1">
+        <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="16"/>
+      <c r="D67" s="13" cm="1">
+        <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -5518,16 +5616,16 @@
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="14"/>
+      <c r="B68" s="13" cm="1">
+        <f t="array" ref="B68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="15"/>
+      <c r="C68" s="13" cm="1">
+        <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="16"/>
+      <c r="D68" s="13" cm="1">
+        <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -5535,16 +5633,16 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="14"/>
+      <c r="B69" s="13" cm="1">
+        <f t="array" ref="B69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="15"/>
+      <c r="C69" s="13" cm="1">
+        <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="16"/>
+      <c r="D69" s="13" cm="1">
+        <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -5552,21 +5650,21 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="14"/>
+      <c r="B70" s="13" cm="1">
+        <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="15"/>
+      <c r="C70" s="13" cm="1">
+        <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="16"/>
+      <c r="D70" s="13" cm="1">
+        <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5574,13 +5672,13 @@
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5588,16 +5686,16 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74">
-        <f>INDEX($D$1:$D$52,MATCH($A74,$A$1:$A$52,0))</f>
+      <c r="B74" s="13">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C74">
-        <f>INDEX($I$1:$I$52,MATCH($A74,$A$1:$A$52,0))</f>
+      <c r="C74" s="13">
+        <f t="shared" ref="C74:D79" si="18">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D74">
-        <f>INDEX($N$1:$N$52,MATCH($A74,$A$1:$A$52,0))</f>
+      <c r="D74" s="13">
+        <f t="shared" si="18"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -5605,16 +5703,16 @@
       <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B75">
-        <f t="shared" ref="B75:B79" si="17">INDEX($D$1:$D$52,MATCH($A75,$A$1:$A$52,0))</f>
+      <c r="B75" s="13">
+        <f t="shared" ref="B75:B79" si="19">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>0</v>
       </c>
-      <c r="C75">
-        <f t="shared" ref="C75:C79" si="18">INDEX($I$1:$I$52,MATCH($A75,$A$1:$A$52,0))</f>
+      <c r="C75" s="13">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="D75">
-        <f t="shared" ref="D75:D79" si="19">INDEX($N$1:$N$52,MATCH($A75,$A$1:$A$52,0))</f>
+      <c r="D75" s="13">
+        <f t="shared" si="18"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -5622,16 +5720,16 @@
       <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="17"/>
+      <c r="B76" s="13">
+        <f t="shared" si="19"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="13">
         <f t="shared" si="18"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="19"/>
+      <c r="D76" s="13">
+        <f t="shared" si="18"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -5639,16 +5737,16 @@
       <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="17"/>
+      <c r="B77" s="13">
+        <f t="shared" si="19"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="13">
         <f t="shared" si="18"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="19"/>
+      <c r="D77" s="13">
+        <f t="shared" si="18"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -5656,16 +5754,16 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="17"/>
+      <c r="B78" s="13">
+        <f t="shared" si="19"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="13">
         <f t="shared" si="18"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="19"/>
+      <c r="D78" s="13">
+        <f t="shared" si="18"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -5673,21 +5771,21 @@
       <c r="A79" t="s">
         <v>55</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="17"/>
+      <c r="B79" s="13">
+        <f t="shared" si="19"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="13">
         <f t="shared" si="18"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="19"/>
+      <c r="D79" s="13">
+        <f t="shared" si="18"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5697,10 +5795,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5708,11 +5806,11 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6">
-        <f>INDEX(B$2:B$52,MATCH($A$82,$A$2:$A$52,0))</f>
+      <c r="B84" s="17">
+        <f>INDEX($A$2:$P$52,MATCH($A$82,$A$2:$A$52,0),2)</f>
         <v>4280900</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="17">
         <f>INDEX(C$2:C$52,MATCH($A$82,$A$2:$A$52,0))</f>
         <v>4066595.33</v>
       </c>
@@ -5721,11 +5819,11 @@
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6">
-        <f>INDEX(G$2:G$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>4700400</v>
-      </c>
-      <c r="C85" s="6">
+      <c r="B85" s="17">
+        <f>INDEX($A$2:$P$52,MATCH($A$82,$A$2:$A$52,0),12)</f>
+        <v>4677800</v>
+      </c>
+      <c r="C85" s="17">
         <f>INDEX(H$2:H$52,MATCH($A$82,$A$2:$A$52,0))</f>
         <v>4205555.5999999996</v>
       </c>
@@ -5734,17 +5832,17 @@
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6">
-        <f>INDEX(L$2:L$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>4677800</v>
-      </c>
-      <c r="C86" s="6">
+      <c r="B86" s="17">
+        <f>INDEX($A$2:$P$52,MATCH($A$82,$A$2:$A$52,0),8)</f>
+        <v>4205555.5999999996</v>
+      </c>
+      <c r="C86" s="17">
         <f>INDEX(M$2:M$52,MATCH($A$82,$A$2:$A$52,0))</f>
         <v>4371713.1399999997</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5752,35 +5850,35 @@
       <c r="A89" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="18">
         <v>1</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="12">
+      <c r="C89" s="18"/>
+      <c r="D89" s="10">
         <v>2</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7">
+      <c r="E89" s="18"/>
+      <c r="F89" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5788,28 +5886,91 @@
       <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="B91" s="13" t="str" cm="1">
+        <f t="array" ref="B91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C91" s="14" cm="1">
+        <f t="array" ref="C91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D91" s="8" t="str" cm="1">
+        <f t="array" ref="D91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E91" s="14" cm="1">
+        <f t="array" ref="E91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F91" t="str" cm="1">
+        <f t="array" ref="F91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G91" s="5" cm="1">
+        <f t="array" ref="G91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="B92" s="13" t="str" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C92" s="14" cm="1">
+        <f t="array" ref="C92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D92" s="8" t="str" cm="1">
+        <f t="array" ref="D92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E92" s="14" cm="1">
+        <f t="array" ref="E92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F92" t="str" cm="1">
+        <f t="array" ref="F92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G92" s="5" cm="1">
+        <f t="array" ref="G92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.13918241656366656</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="B93" s="13" t="str" cm="1">
+        <f t="array" ref="B93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C93" s="14" cm="1">
+        <f t="array" ref="C93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D93" s="8" t="str" cm="1">
+        <f t="array" ref="D93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E93" s="14" cm="1">
+        <f t="array" ref="E93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F93" t="str" cm="1">
+        <f t="array" ref="F93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Election Commission</v>
+      </c>
+      <c r="G93" s="5" cm="1">
+        <f t="array" ref="G93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.12882667147667154</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5817,35 +5978,35 @@
       <c r="A96" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="18">
         <v>1</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="12">
+      <c r="C96" s="18"/>
+      <c r="D96" s="10">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7">
+      <c r="E96" s="18"/>
+      <c r="F96" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5853,27 +6014,90 @@
       <c r="A98" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" s="13" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C98" s="14">
+        <f>INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D98" s="8" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E98" s="14">
+        <f>INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G98" s="5">
+        <f>INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="B99" s="13" t="str">
+        <f t="shared" ref="B99:B100" si="20">INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C99" s="14">
+        <f t="shared" ref="C99:C100" si="21">INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D99" s="8" t="str">
+        <f t="shared" ref="D99:D100" si="22">INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" ref="E99:E100" si="23">INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ref="F99:F100" si="24">INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0))</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" ref="G99:G100" si="25">INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_ranK",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.13918241656366656</v>
+      </c>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B100" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C100" s="14">
+        <f t="shared" si="21"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D100" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E100" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="24"/>
+        <v>Election Commission</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.12882667147667154</v>
+      </c>
       <c r="I100" s="4"/>
     </row>
   </sheetData>
